--- a/Website content/School Master/Sch_Schedule_Master.xlsx
+++ b/Website content/School Master/Sch_Schedule_Master.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -770,11 +770,158 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="24">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -1024,19 +1171,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J318" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E56" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:E56"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Sr. No." dataDxfId="6"/>
+    <tableColumn id="2" name="Route No" dataDxfId="5"/>
+    <tableColumn id="3" name="Duty Code" dataDxfId="4"/>
+    <tableColumn id="4" name="Week_Day_Start_time" dataDxfId="3"/>
+    <tableColumn id="5" name="WeekEnd_Day_Start_time" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:J318" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
   <autoFilter ref="A1:J318"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Sr. No." dataDxfId="9"/>
-    <tableColumn id="2" name="Route No" dataDxfId="8"/>
-    <tableColumn id="3" name="Duty Code" dataDxfId="7"/>
-    <tableColumn id="4" name="Origin " dataDxfId="6"/>
-    <tableColumn id="5" name="Destination" dataDxfId="5"/>
-    <tableColumn id="6" name="Week_Day_Start_time" dataDxfId="4"/>
-    <tableColumn id="7" name="WeekEnd_Day_Start_time" dataDxfId="3"/>
-    <tableColumn id="8" name="Distance" dataDxfId="2"/>
-    <tableColumn id="9" name="Dead KM" dataDxfId="1"/>
-    <tableColumn id="10" name="Depot" dataDxfId="0"/>
+    <tableColumn id="1" name="Sr. No." dataDxfId="19"/>
+    <tableColumn id="2" name="Route No" dataDxfId="18"/>
+    <tableColumn id="3" name="Duty Code" dataDxfId="17"/>
+    <tableColumn id="4" name="Origin " dataDxfId="16"/>
+    <tableColumn id="5" name="Destination" dataDxfId="15"/>
+    <tableColumn id="6" name="Week_Day_Start_time" dataDxfId="14"/>
+    <tableColumn id="7" name="WeekEnd_Day_Start_time" dataDxfId="13"/>
+    <tableColumn id="8" name="Distance" dataDxfId="12"/>
+    <tableColumn id="9" name="Dead KM" dataDxfId="11"/>
+    <tableColumn id="10" name="Depot" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1339,29 +1500,29 @@
   <cols>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -1373,12 +1534,12 @@
       <c r="D2" s="1">
         <v>930</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -1390,12 +1551,12 @@
       <c r="D3" s="1">
         <v>930</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -1407,12 +1568,12 @@
       <c r="D4" s="1">
         <v>620</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="10">
         <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -1424,12 +1585,12 @@
       <c r="D5" s="1">
         <v>545</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1441,12 +1602,12 @@
       <c r="D6" s="1">
         <v>730</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <v>730</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -1458,12 +1619,12 @@
       <c r="D7" s="1">
         <v>930</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -1475,12 +1636,12 @@
       <c r="D8" s="1">
         <v>730</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>730</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -1492,12 +1653,12 @@
       <c r="D9" s="1">
         <v>1030</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -1509,12 +1670,12 @@
       <c r="D10" s="1">
         <v>1030</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>1030</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -1526,12 +1687,12 @@
       <c r="D11" s="1">
         <v>1000</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1543,12 +1704,12 @@
       <c r="D12" s="1">
         <v>950</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -1560,12 +1721,12 @@
       <c r="D13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -1577,12 +1738,12 @@
       <c r="D14" s="1">
         <v>1000</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -1594,12 +1755,12 @@
       <c r="D15" s="1">
         <v>1000</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1611,12 +1772,12 @@
       <c r="D16" s="1">
         <v>915</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="10">
         <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -1628,12 +1789,12 @@
       <c r="D17" s="1">
         <v>930</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -1645,12 +1806,12 @@
       <c r="D18" s="1">
         <v>1020</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="10">
         <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -1662,12 +1823,12 @@
       <c r="D19" s="1">
         <v>1000</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -1679,12 +1840,12 @@
       <c r="D20" s="1">
         <v>530</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -1696,12 +1857,12 @@
       <c r="D21" s="1">
         <v>1015</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="10">
         <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -1713,12 +1874,12 @@
       <c r="D22" s="1">
         <v>605</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="10">
         <v>605</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -1730,12 +1891,12 @@
       <c r="D23" s="1">
         <v>1100</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="10">
         <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -1747,12 +1908,12 @@
       <c r="D24" s="1">
         <v>1000</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -1764,12 +1925,12 @@
       <c r="D25" s="1">
         <v>1100</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="10">
         <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -1781,12 +1942,12 @@
       <c r="D26" s="1">
         <v>1100</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="10">
         <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -1798,12 +1959,12 @@
       <c r="D27" s="1">
         <v>630</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="10">
         <v>505</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -1815,12 +1976,12 @@
       <c r="D28" s="1">
         <v>550</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="10">
         <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -1832,12 +1993,12 @@
       <c r="D29" s="1">
         <v>600</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -1849,12 +2010,12 @@
       <c r="D30" s="1">
         <v>1000</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -1866,12 +2027,12 @@
       <c r="D31" s="1">
         <v>1035</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="10">
         <v>535</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -1883,12 +2044,12 @@
       <c r="D32" s="1">
         <v>950</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="10">
         <v>515</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -1900,12 +2061,12 @@
       <c r="D33" s="1">
         <v>1020</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="10">
         <v>545</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -1917,12 +2078,12 @@
       <c r="D34" s="1">
         <v>1035</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="10">
         <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -1934,12 +2095,12 @@
       <c r="D35" s="1">
         <v>1025</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -1951,12 +2112,12 @@
       <c r="D36" s="1">
         <v>1025</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -1968,12 +2129,12 @@
       <c r="D37" s="1">
         <v>1040</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -1985,12 +2146,12 @@
       <c r="D38" s="1">
         <v>945</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="10">
         <v>945</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -2002,12 +2163,12 @@
       <c r="D39" s="1">
         <v>945</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="10">
         <v>945</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -2019,12 +2180,12 @@
       <c r="D40" s="1">
         <v>1015</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="10">
         <v>555</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -2036,12 +2197,12 @@
       <c r="D41" s="1">
         <v>1030</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -2053,12 +2214,12 @@
       <c r="D42" s="1">
         <v>640</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="10">
         <v>540</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -2070,12 +2231,12 @@
       <c r="D43" s="1">
         <v>640</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="10">
         <v>540</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="A44" s="7">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -2087,12 +2248,12 @@
       <c r="D44" s="1">
         <v>1030</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -2104,12 +2265,12 @@
       <c r="D45" s="1">
         <v>830</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="10">
         <v>520</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="7">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -2121,12 +2282,12 @@
       <c r="D46" s="1">
         <v>1030</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="10">
         <v>1030</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="A47" s="7">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -2138,12 +2299,12 @@
       <c r="D47" s="1">
         <v>915</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="10">
         <v>515</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="7">
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -2155,12 +2316,12 @@
       <c r="D48" s="1">
         <v>1020</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="10">
         <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="7">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -2172,12 +2333,12 @@
       <c r="D49" s="1">
         <v>630</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="10">
         <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="7">
         <v>49</v>
       </c>
       <c r="B50" s="1">
@@ -2189,12 +2350,12 @@
       <c r="D50" s="1">
         <v>700</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="10">
         <v>700</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="7">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -2206,12 +2367,12 @@
       <c r="D51" s="1">
         <v>730</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="10">
         <v>730</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="A52" s="7">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -2223,12 +2384,12 @@
       <c r="D52" s="1">
         <v>800</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="10">
         <v>600</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="A53" s="7">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -2240,12 +2401,12 @@
       <c r="D53" s="1">
         <v>745</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="10">
         <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="7">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -2257,12 +2418,12 @@
       <c r="D54" s="1">
         <v>830</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="10">
         <v>830</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="A55" s="7">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -2274,44 +2435,49 @@
       <c r="D55" s="1">
         <v>810</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="10">
         <v>810</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="6">
         <v>810</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="22">
         <v>810</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.27559055118110237" right="0.35433070866141736" top="0.31496062992125984" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L318"/>
+  <dimension ref="A1:N318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J318" sqref="A1:J318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
     <col min="4" max="5" width="43.5703125" customWidth="1"/>
     <col min="6" max="7" width="5" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" style="5" customWidth="1"/>
@@ -2319,7 +2485,7 @@
     <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +2517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2383,7 +2549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2415,7 +2581,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2447,7 +2613,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2479,7 +2645,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2511,7 +2677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2543,7 +2709,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2575,7 +2741,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2607,7 +2773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2639,7 +2805,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2671,7 +2837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2703,7 +2869,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2735,7 +2901,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2767,7 +2933,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2799,7 +2965,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2827,11 +2993,15 @@
       <c r="I16" s="9">
         <v>5</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2859,11 +3029,15 @@
       <c r="I17" s="9">
         <v>5</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2891,11 +3065,15 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2923,11 +3101,15 @@
       <c r="I19" s="9">
         <v>0.6</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2955,11 +3137,15 @@
       <c r="I20" s="9">
         <v>11.2</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -2987,11 +3173,15 @@
       <c r="I21" s="9">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -3019,11 +3209,15 @@
       <c r="I22" s="9">
         <v>5</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -3051,11 +3245,15 @@
       <c r="I23" s="9">
         <v>5</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -3083,11 +3281,15 @@
       <c r="I24" s="9">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -3115,11 +3317,15 @@
       <c r="I25" s="9">
         <v>11.3</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -3147,11 +3353,15 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -3179,11 +3389,15 @@
       <c r="I27" s="9">
         <v>0</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -3211,11 +3425,15 @@
       <c r="I28" s="9">
         <v>6</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>25</v>
       </c>
@@ -3243,11 +3461,15 @@
       <c r="I29" s="9">
         <v>6</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>26</v>
       </c>
@@ -3275,11 +3497,15 @@
       <c r="I30" s="9">
         <v>0</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>27</v>
       </c>
@@ -3307,11 +3533,15 @@
       <c r="I31" s="9">
         <v>1</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>28</v>
       </c>
@@ -3339,11 +3569,15 @@
       <c r="I32" s="10">
         <v>10.6</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>29</v>
       </c>
@@ -3371,11 +3605,15 @@
       <c r="I33" s="10">
         <v>0</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>30</v>
       </c>
@@ -3403,11 +3641,15 @@
       <c r="I34" s="10">
         <v>3</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>31</v>
       </c>
@@ -3435,11 +3677,15 @@
       <c r="I35" s="10">
         <v>3</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>32</v>
       </c>
@@ -3467,13 +3713,15 @@
       <c r="I36" s="10">
         <v>0</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>33</v>
       </c>
@@ -3501,13 +3749,15 @@
       <c r="I37" s="10">
         <v>10.6</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>34</v>
       </c>
@@ -3535,11 +3785,15 @@
       <c r="I38" s="9">
         <v>1</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>35</v>
       </c>
@@ -3567,11 +3821,15 @@
       <c r="I39" s="9">
         <v>0</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>36</v>
       </c>
@@ -3599,11 +3857,15 @@
       <c r="I40" s="9">
         <v>6</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>37</v>
       </c>
@@ -3631,11 +3893,15 @@
       <c r="I41" s="9">
         <v>6</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>38</v>
       </c>
@@ -3663,11 +3929,15 @@
       <c r="I42" s="9">
         <v>0</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>39</v>
       </c>
@@ -3695,11 +3965,15 @@
       <c r="I43" s="9">
         <v>1</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>40</v>
       </c>
@@ -3727,11 +4001,15 @@
       <c r="I44" s="9">
         <v>0</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
+      <c r="N44" s="23"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>41</v>
       </c>
@@ -3759,11 +4037,15 @@
       <c r="I45" s="9">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
+      <c r="N45" s="23"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>42</v>
       </c>
@@ -3791,11 +4073,15 @@
       <c r="I46" s="9">
         <v>20.5</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>43</v>
       </c>
@@ -3823,11 +4109,15 @@
       <c r="I47" s="9">
         <v>0</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>44</v>
       </c>
@@ -3855,11 +4145,15 @@
       <c r="I48" s="9">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>45</v>
       </c>
@@ -3887,11 +4181,15 @@
       <c r="I49" s="9">
         <v>20.5</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="23"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>46</v>
       </c>
@@ -3919,11 +4217,15 @@
       <c r="I50" s="9">
         <v>20.5</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>47</v>
       </c>
@@ -3951,11 +4253,15 @@
       <c r="I51" s="13">
         <v>0</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="21" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>48</v>
       </c>
@@ -3983,11 +4289,15 @@
       <c r="I52" s="9">
         <v>8.6</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>49</v>
       </c>
@@ -4015,11 +4325,15 @@
       <c r="I53" s="9">
         <v>0</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>50</v>
       </c>
@@ -4047,11 +4361,15 @@
       <c r="I54" s="9">
         <v>8</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>51</v>
       </c>
@@ -4079,11 +4397,15 @@
       <c r="I55" s="9">
         <v>8</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>52</v>
       </c>
@@ -4111,11 +4433,15 @@
       <c r="I56" s="9">
         <v>0</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>53</v>
       </c>
@@ -4143,11 +4469,15 @@
       <c r="I57" s="9">
         <v>8.6</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="23"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>54</v>
       </c>
@@ -4175,11 +4505,15 @@
       <c r="I58" s="9">
         <v>16.5</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>55</v>
       </c>
@@ -4207,11 +4541,15 @@
       <c r="I59" s="9">
         <v>0</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>56</v>
       </c>
@@ -4239,11 +4577,15 @@
       <c r="I60" s="9">
         <v>7</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>57</v>
       </c>
@@ -4271,11 +4613,15 @@
       <c r="I61" s="9">
         <v>7</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>58</v>
       </c>
@@ -4303,11 +4649,15 @@
       <c r="I62" s="9">
         <v>0</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>59</v>
       </c>
@@ -4335,11 +4685,15 @@
       <c r="I63" s="9">
         <v>16.5</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>60</v>
       </c>
@@ -4367,11 +4721,15 @@
       <c r="I64" s="9">
         <v>12</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="7">
         <v>61</v>
       </c>
@@ -4399,11 +4757,15 @@
       <c r="I65" s="9">
         <v>0</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="7">
         <v>62</v>
       </c>
@@ -4431,11 +4793,15 @@
       <c r="I66" s="9">
         <v>2.5</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>63</v>
       </c>
@@ -4463,11 +4829,15 @@
       <c r="I67" s="9">
         <v>2.5</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
         <v>64</v>
       </c>
@@ -4495,11 +4865,15 @@
       <c r="I68" s="9">
         <v>0</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="7">
         <v>65</v>
       </c>
@@ -4527,11 +4901,15 @@
       <c r="I69" s="9">
         <v>12</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="7">
         <v>66</v>
       </c>
@@ -4557,11 +4935,15 @@
       <c r="I70" s="9">
         <v>17</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="7">
         <v>67</v>
       </c>
@@ -4587,11 +4969,15 @@
       <c r="I71" s="9">
         <v>0</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="7">
         <v>68</v>
       </c>
@@ -4617,11 +5003,15 @@
       <c r="I72" s="9">
         <v>8</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="7">
         <v>69</v>
       </c>
@@ -4647,11 +5037,15 @@
       <c r="I73" s="9">
         <v>8</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="7">
         <v>70</v>
       </c>
@@ -4677,11 +5071,15 @@
       <c r="I74" s="9">
         <v>0</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="7">
         <v>71</v>
       </c>
@@ -4707,11 +5105,15 @@
       <c r="I75" s="9">
         <v>17</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="N75" s="23"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="7">
         <v>72</v>
       </c>
@@ -4737,11 +5139,15 @@
       <c r="I76" s="9">
         <v>17</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>73</v>
       </c>
@@ -4767,11 +5173,15 @@
       <c r="I77" s="9">
         <v>0</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="N77" s="23"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
         <v>74</v>
       </c>
@@ -4797,11 +5207,15 @@
       <c r="I78" s="9">
         <v>0</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="N78" s="23"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>75</v>
       </c>
@@ -4827,11 +5241,15 @@
       <c r="I79" s="9">
         <v>17</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
+      <c r="N79" s="23"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>76</v>
       </c>
@@ -4859,11 +5277,15 @@
       <c r="I80" s="9">
         <v>7</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>77</v>
       </c>
@@ -4891,11 +5313,15 @@
       <c r="I81" s="9">
         <v>0</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
         <v>78</v>
       </c>
@@ -4923,11 +5349,15 @@
       <c r="I82" s="9">
         <v>9</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
         <v>79</v>
       </c>
@@ -4955,11 +5385,15 @@
       <c r="I83" s="9">
         <v>9</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="N83" s="23"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
         <v>80</v>
       </c>
@@ -4987,11 +5421,15 @@
       <c r="I84" s="9">
         <v>0</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="23"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
         <v>81</v>
       </c>
@@ -5019,11 +5457,15 @@
       <c r="I85" s="9">
         <v>7</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
         <v>82</v>
       </c>
@@ -5051,11 +5493,15 @@
       <c r="I86" s="9">
         <v>16.5</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
         <v>83</v>
       </c>
@@ -5083,11 +5529,15 @@
       <c r="I87" s="9">
         <v>0</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
         <v>84</v>
       </c>
@@ -5115,11 +5565,15 @@
       <c r="I88" s="9">
         <v>7</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
         <v>85</v>
       </c>
@@ -5147,11 +5601,15 @@
       <c r="I89" s="9">
         <v>7</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
         <v>86</v>
       </c>
@@ -5179,11 +5637,15 @@
       <c r="I90" s="9">
         <v>0</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="7">
         <v>87</v>
       </c>
@@ -5211,11 +5673,15 @@
       <c r="I91" s="9">
         <v>16.5</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="7">
         <v>88</v>
       </c>
@@ -5241,11 +5707,15 @@
       <c r="I92" s="9">
         <v>8</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="7">
         <v>89</v>
       </c>
@@ -5271,11 +5741,15 @@
       <c r="I93" s="9">
         <v>0</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="7">
         <v>90</v>
       </c>
@@ -5301,11 +5775,15 @@
       <c r="I94" s="9">
         <v>8</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="J94" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="7">
         <v>91</v>
       </c>
@@ -5331,11 +5809,15 @@
       <c r="I95" s="9">
         <v>8</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="7">
         <v>92</v>
       </c>
@@ -5361,11 +5843,15 @@
       <c r="I96" s="9">
         <v>0</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>93</v>
       </c>
@@ -5391,11 +5877,15 @@
       <c r="I97" s="9">
         <v>8</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="7">
         <v>94</v>
       </c>
@@ -5423,11 +5913,15 @@
       <c r="I98" s="9">
         <v>10</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>95</v>
       </c>
@@ -5455,11 +5949,15 @@
       <c r="I99" s="9">
         <v>0</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="N99" s="23"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>96</v>
       </c>
@@ -5487,11 +5985,15 @@
       <c r="I100" s="9">
         <v>7</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="N100" s="23"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>97</v>
       </c>
@@ -5519,11 +6021,15 @@
       <c r="I101" s="9">
         <v>7</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+      <c r="N101" s="23"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>98</v>
       </c>
@@ -5551,11 +6057,15 @@
       <c r="I102" s="9">
         <v>0</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
+      <c r="N102" s="23"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="7">
         <v>99</v>
       </c>
@@ -5583,11 +6093,15 @@
       <c r="I103" s="9">
         <v>7</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="23"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="7">
         <v>100</v>
       </c>
@@ -5613,11 +6127,15 @@
       <c r="I104" s="9">
         <v>8</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K104" s="23"/>
+      <c r="L104" s="23"/>
+      <c r="M104" s="23"/>
+      <c r="N104" s="23"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="7">
         <v>101</v>
       </c>
@@ -5643,11 +6161,15 @@
       <c r="I105" s="9">
         <v>0</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K105" s="23"/>
+      <c r="L105" s="23"/>
+      <c r="M105" s="23"/>
+      <c r="N105" s="23"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="7">
         <v>102</v>
       </c>
@@ -5673,11 +6195,15 @@
       <c r="I106" s="9">
         <v>5</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K106" s="23"/>
+      <c r="L106" s="23"/>
+      <c r="M106" s="23"/>
+      <c r="N106" s="23"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="7">
         <v>103</v>
       </c>
@@ -5703,11 +6229,15 @@
       <c r="I107" s="9">
         <v>5</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K107" s="23"/>
+      <c r="L107" s="23"/>
+      <c r="M107" s="23"/>
+      <c r="N107" s="23"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="7">
         <v>104</v>
       </c>
@@ -5733,11 +6263,15 @@
       <c r="I108" s="9">
         <v>0</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="J108" s="10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>105</v>
       </c>
@@ -5763,11 +6297,15 @@
       <c r="I109" s="13">
         <v>8</v>
       </c>
-      <c r="J109" s="6" t="s">
+      <c r="J109" s="22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K109" s="23"/>
+      <c r="L109" s="23"/>
+      <c r="M109" s="23"/>
+      <c r="N109" s="23"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="7">
         <v>106</v>
       </c>
@@ -5795,11 +6333,15 @@
       <c r="I110" s="9">
         <v>0</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="J110" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="23"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="7">
         <v>107</v>
       </c>
@@ -5827,11 +6369,15 @@
       <c r="I111" s="9">
         <v>2.5</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K111" s="23"/>
+      <c r="L111" s="23"/>
+      <c r="M111" s="23"/>
+      <c r="N111" s="23"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="7">
         <v>108</v>
       </c>
@@ -5859,11 +6405,15 @@
       <c r="I112" s="9">
         <v>2.5</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="J112" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K112" s="23"/>
+      <c r="L112" s="23"/>
+      <c r="M112" s="23"/>
+      <c r="N112" s="23"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="7">
         <v>109</v>
       </c>
@@ -5891,11 +6441,15 @@
       <c r="I113" s="9">
         <v>0</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="J113" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K113" s="23"/>
+      <c r="L113" s="23"/>
+      <c r="M113" s="23"/>
+      <c r="N113" s="23"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="7">
         <v>110</v>
       </c>
@@ -5911,9 +6465,13 @@
       <c r="G114" s="1"/>
       <c r="H114" s="15"/>
       <c r="I114" s="9"/>
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J114" s="10"/>
+      <c r="K114" s="23"/>
+      <c r="L114" s="23"/>
+      <c r="M114" s="23"/>
+      <c r="N114" s="23"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="7">
         <v>111</v>
       </c>
@@ -5941,11 +6499,15 @@
       <c r="I115" s="9">
         <v>0</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="J115" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K115" s="23"/>
+      <c r="L115" s="23"/>
+      <c r="M115" s="23"/>
+      <c r="N115" s="23"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="7">
         <v>112</v>
       </c>
@@ -5973,11 +6535,15 @@
       <c r="I116" s="9">
         <v>10</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="J116" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K116" s="23"/>
+      <c r="L116" s="23"/>
+      <c r="M116" s="23"/>
+      <c r="N116" s="23"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>113</v>
       </c>
@@ -6003,11 +6569,15 @@
       <c r="I117" s="9">
         <v>10</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J117" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K117" s="23"/>
+      <c r="L117" s="23"/>
+      <c r="M117" s="23"/>
+      <c r="N117" s="23"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="7">
         <v>114</v>
       </c>
@@ -6033,11 +6603,15 @@
       <c r="I118" s="9">
         <v>0</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="J118" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K118" s="23"/>
+      <c r="L118" s="23"/>
+      <c r="M118" s="23"/>
+      <c r="N118" s="23"/>
+    </row>
+    <row r="119" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>115</v>
       </c>
@@ -6065,11 +6639,15 @@
       <c r="I119" s="9">
         <v>0</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="J119" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K119" s="23"/>
+      <c r="L119" s="23"/>
+      <c r="M119" s="23"/>
+      <c r="N119" s="23"/>
+    </row>
+    <row r="120" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>116</v>
       </c>
@@ -6097,11 +6675,15 @@
       <c r="I120" s="9">
         <v>8.5</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J120" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K120" s="23"/>
+      <c r="L120" s="23"/>
+      <c r="M120" s="23"/>
+      <c r="N120" s="23"/>
+    </row>
+    <row r="121" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>117</v>
       </c>
@@ -6129,11 +6711,15 @@
       <c r="I121" s="9">
         <v>8.5</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="J121" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K121" s="23"/>
+      <c r="L121" s="23"/>
+      <c r="M121" s="23"/>
+      <c r="N121" s="23"/>
+    </row>
+    <row r="122" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="7">
         <v>118</v>
       </c>
@@ -6161,11 +6747,15 @@
       <c r="I122" s="9">
         <v>0</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="J122" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="23"/>
+    </row>
+    <row r="123" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="7">
         <v>119</v>
       </c>
@@ -6193,11 +6783,15 @@
       <c r="I123" s="9">
         <v>0</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="J123" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K123" s="23"/>
+      <c r="L123" s="23"/>
+      <c r="M123" s="23"/>
+      <c r="N123" s="23"/>
+    </row>
+    <row r="124" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="7">
         <v>120</v>
       </c>
@@ -6225,11 +6819,15 @@
       <c r="I124" s="9">
         <v>8.5</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="J124" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K124" s="23"/>
+      <c r="L124" s="23"/>
+      <c r="M124" s="23"/>
+      <c r="N124" s="23"/>
+    </row>
+    <row r="125" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="7">
         <v>121</v>
       </c>
@@ -6257,11 +6855,15 @@
       <c r="I125" s="9">
         <v>8.5</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="J125" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K125" s="23"/>
+      <c r="L125" s="23"/>
+      <c r="M125" s="23"/>
+      <c r="N125" s="23"/>
+    </row>
+    <row r="126" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="7">
         <v>122</v>
       </c>
@@ -6289,11 +6891,15 @@
       <c r="I126" s="9">
         <v>0</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="J126" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K126" s="23"/>
+      <c r="L126" s="23"/>
+      <c r="M126" s="23"/>
+      <c r="N126" s="23"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="7">
         <v>123</v>
       </c>
@@ -6321,11 +6927,15 @@
       <c r="I127" s="9">
         <v>0.5</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="J127" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="23"/>
+      <c r="L127" s="23"/>
+      <c r="M127" s="23"/>
+      <c r="N127" s="23"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="7">
         <v>124</v>
       </c>
@@ -6353,11 +6963,15 @@
       <c r="I128" s="9">
         <v>0</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="J128" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
+      <c r="M128" s="23"/>
+      <c r="N128" s="23"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>125</v>
       </c>
@@ -6385,11 +6999,15 @@
       <c r="I129" s="9">
         <v>7.5</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="J129" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
+      <c r="M129" s="23"/>
+      <c r="N129" s="23"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>126</v>
       </c>
@@ -6417,11 +7035,15 @@
       <c r="I130" s="9">
         <v>7.5</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="J130" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K130" s="23"/>
+      <c r="L130" s="23"/>
+      <c r="M130" s="23"/>
+      <c r="N130" s="23"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>127</v>
       </c>
@@ -6449,11 +7071,15 @@
       <c r="I131" s="9">
         <v>0</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="J131" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K131" s="23"/>
+      <c r="L131" s="23"/>
+      <c r="M131" s="23"/>
+      <c r="N131" s="23"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="7">
         <v>128</v>
       </c>
@@ -6481,11 +7107,15 @@
       <c r="I132" s="9">
         <v>0.5</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J132" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K132" s="23"/>
+      <c r="L132" s="23"/>
+      <c r="M132" s="23"/>
+      <c r="N132" s="23"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="7">
         <v>129</v>
       </c>
@@ -6511,11 +7141,15 @@
       <c r="I133" s="9">
         <v>4</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="J133" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K133" s="23"/>
+      <c r="L133" s="23"/>
+      <c r="M133" s="23"/>
+      <c r="N133" s="23"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="7">
         <v>130</v>
       </c>
@@ -6541,11 +7175,15 @@
       <c r="I134" s="9">
         <v>0</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="J134" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K134" s="23"/>
+      <c r="L134" s="23"/>
+      <c r="M134" s="23"/>
+      <c r="N134" s="23"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="7">
         <v>131</v>
       </c>
@@ -6571,11 +7209,15 @@
       <c r="I135" s="9">
         <v>8.5</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="J135" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K135" s="23"/>
+      <c r="L135" s="23"/>
+      <c r="M135" s="23"/>
+      <c r="N135" s="23"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="7">
         <v>132</v>
       </c>
@@ -6601,11 +7243,15 @@
       <c r="I136" s="9">
         <v>8.5</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="J136" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K136" s="23"/>
+      <c r="L136" s="23"/>
+      <c r="M136" s="23"/>
+      <c r="N136" s="23"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>133</v>
       </c>
@@ -6631,11 +7277,15 @@
       <c r="I137" s="9">
         <v>0</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="J137" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K137" s="23"/>
+      <c r="L137" s="23"/>
+      <c r="M137" s="23"/>
+      <c r="N137" s="23"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="7">
         <v>134</v>
       </c>
@@ -6661,11 +7311,15 @@
       <c r="I138" s="9">
         <v>4</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="J138" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K138" s="23"/>
+      <c r="L138" s="23"/>
+      <c r="M138" s="23"/>
+      <c r="N138" s="23"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>135</v>
       </c>
@@ -6691,11 +7345,15 @@
       <c r="I139" s="9">
         <v>6.5</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J139" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K139" s="23"/>
+      <c r="L139" s="23"/>
+      <c r="M139" s="23"/>
+      <c r="N139" s="23"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>136</v>
       </c>
@@ -6721,11 +7379,15 @@
       <c r="I140" s="9">
         <v>0</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="J140" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K140" s="23"/>
+      <c r="L140" s="23"/>
+      <c r="M140" s="23"/>
+      <c r="N140" s="23"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>137</v>
       </c>
@@ -6751,11 +7413,15 @@
       <c r="I141" s="9">
         <v>7</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="J141" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K141" s="23"/>
+      <c r="L141" s="23"/>
+      <c r="M141" s="23"/>
+      <c r="N141" s="23"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="7">
         <v>138</v>
       </c>
@@ -6781,11 +7447,15 @@
       <c r="I142" s="9">
         <v>7</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="J142" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K142" s="23"/>
+      <c r="L142" s="23"/>
+      <c r="M142" s="23"/>
+      <c r="N142" s="23"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="7">
         <v>139</v>
       </c>
@@ -6811,11 +7481,15 @@
       <c r="I143" s="9">
         <v>0</v>
       </c>
-      <c r="J143" s="1" t="s">
+      <c r="J143" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K143" s="23"/>
+      <c r="L143" s="23"/>
+      <c r="M143" s="23"/>
+      <c r="N143" s="23"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="7">
         <v>140</v>
       </c>
@@ -6841,11 +7515,15 @@
       <c r="I144" s="9">
         <v>6.5</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="J144" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K144" s="23"/>
+      <c r="L144" s="23"/>
+      <c r="M144" s="23"/>
+      <c r="N144" s="23"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="7">
         <v>141</v>
       </c>
@@ -6873,11 +7551,15 @@
       <c r="I145" s="9">
         <v>12</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="J145" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K145" s="23"/>
+      <c r="L145" s="23"/>
+      <c r="M145" s="23"/>
+      <c r="N145" s="23"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="7">
         <v>142</v>
       </c>
@@ -6905,11 +7587,15 @@
       <c r="I146" s="9">
         <v>0</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="J146" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K146" s="23"/>
+      <c r="L146" s="23"/>
+      <c r="M146" s="23"/>
+      <c r="N146" s="23"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="7">
         <v>143</v>
       </c>
@@ -6937,11 +7623,15 @@
       <c r="I147" s="9">
         <v>2.5</v>
       </c>
-      <c r="J147" s="1" t="s">
+      <c r="J147" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K147" s="23"/>
+      <c r="L147" s="23"/>
+      <c r="M147" s="23"/>
+      <c r="N147" s="23"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="7">
         <v>144</v>
       </c>
@@ -6969,11 +7659,15 @@
       <c r="I148" s="9">
         <v>2.5</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="J148" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K148" s="23"/>
+      <c r="L148" s="23"/>
+      <c r="M148" s="23"/>
+      <c r="N148" s="23"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="7">
         <v>145</v>
       </c>
@@ -7001,11 +7695,15 @@
       <c r="I149" s="9">
         <v>0</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="J149" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K149" s="23"/>
+      <c r="L149" s="23"/>
+      <c r="M149" s="23"/>
+      <c r="N149" s="23"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>146</v>
       </c>
@@ -7033,11 +7731,15 @@
       <c r="I150" s="13">
         <v>12</v>
       </c>
-      <c r="J150" s="6" t="s">
+      <c r="J150" s="22" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K150" s="23"/>
+      <c r="L150" s="23"/>
+      <c r="M150" s="23"/>
+      <c r="N150" s="23"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="7">
         <v>147</v>
       </c>
@@ -7065,20 +7767,24 @@
       <c r="I151" s="9">
         <v>5</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="J151" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K151" s="23"/>
+      <c r="L151" s="23"/>
+      <c r="M151" s="23"/>
+      <c r="N151" s="23"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="7">
         <v>148</v>
       </c>
       <c r="B152" s="1">
-        <f>B151</f>
+        <f t="shared" ref="B152:C156" si="0">B151</f>
         <v>601</v>
       </c>
       <c r="C152" s="1" t="str">
-        <f>C151</f>
+        <f t="shared" si="0"/>
         <v>601/1</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -7099,20 +7805,24 @@
       <c r="I152" s="9">
         <v>0</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J152" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K152" s="23"/>
+      <c r="L152" s="23"/>
+      <c r="M152" s="23"/>
+      <c r="N152" s="23"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="7">
         <v>149</v>
       </c>
       <c r="B153" s="1">
-        <f>B152</f>
+        <f t="shared" si="0"/>
         <v>601</v>
       </c>
       <c r="C153" s="1" t="str">
-        <f>C152</f>
+        <f t="shared" si="0"/>
         <v>601/1</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -7133,20 +7843,24 @@
       <c r="I153" s="9">
         <v>5</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="J153" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K153" s="23"/>
+      <c r="L153" s="23"/>
+      <c r="M153" s="23"/>
+      <c r="N153" s="23"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="7">
         <v>150</v>
       </c>
       <c r="B154" s="1">
-        <f>B153</f>
+        <f t="shared" si="0"/>
         <v>601</v>
       </c>
       <c r="C154" s="1" t="str">
-        <f>C153</f>
+        <f t="shared" si="0"/>
         <v>601/1</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -7167,20 +7881,24 @@
       <c r="I154" s="9">
         <v>5</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="J154" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K154" s="23"/>
+      <c r="L154" s="23"/>
+      <c r="M154" s="23"/>
+      <c r="N154" s="23"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" s="7">
         <v>151</v>
       </c>
       <c r="B155" s="1">
-        <f>B154</f>
+        <f t="shared" si="0"/>
         <v>601</v>
       </c>
       <c r="C155" s="1" t="str">
-        <f>C154</f>
+        <f t="shared" si="0"/>
         <v>601/1</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -7201,20 +7919,24 @@
       <c r="I155" s="9">
         <v>0</v>
       </c>
-      <c r="J155" s="1" t="s">
+      <c r="J155" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K155" s="23"/>
+      <c r="L155" s="23"/>
+      <c r="M155" s="23"/>
+      <c r="N155" s="23"/>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" s="7">
         <v>152</v>
       </c>
       <c r="B156" s="1">
-        <f>B155</f>
+        <f t="shared" si="0"/>
         <v>601</v>
       </c>
       <c r="C156" s="1" t="str">
-        <f>C155</f>
+        <f t="shared" si="0"/>
         <v>601/1</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -7235,11 +7957,15 @@
       <c r="I156" s="9">
         <v>5</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="J156" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K156" s="23"/>
+      <c r="L156" s="23"/>
+      <c r="M156" s="23"/>
+      <c r="N156" s="23"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>153</v>
       </c>
@@ -7267,20 +7993,24 @@
       <c r="I157" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J157" s="1" t="s">
+      <c r="J157" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K157" s="23"/>
+      <c r="L157" s="23"/>
+      <c r="M157" s="23"/>
+      <c r="N157" s="23"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158" s="7">
         <v>154</v>
       </c>
       <c r="B158" s="1">
-        <f>B157</f>
+        <f t="shared" ref="B158:C162" si="1">B157</f>
         <v>601</v>
       </c>
       <c r="C158" s="1" t="str">
-        <f>C157</f>
+        <f t="shared" si="1"/>
         <v>601/2</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -7301,20 +8031,24 @@
       <c r="I158" s="9">
         <v>0</v>
       </c>
-      <c r="J158" s="1" t="s">
+      <c r="J158" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K158" s="23"/>
+      <c r="L158" s="23"/>
+      <c r="M158" s="23"/>
+      <c r="N158" s="23"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>155</v>
       </c>
       <c r="B159" s="1">
-        <f>B158</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="C159" s="1" t="str">
-        <f>C158</f>
+        <f t="shared" si="1"/>
         <v>601/2</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -7335,20 +8069,24 @@
       <c r="I159" s="9">
         <v>7</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="J159" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K159" s="23"/>
+      <c r="L159" s="23"/>
+      <c r="M159" s="23"/>
+      <c r="N159" s="23"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>156</v>
       </c>
       <c r="B160" s="1">
-        <f>B159</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="C160" s="1" t="str">
-        <f>C159</f>
+        <f t="shared" si="1"/>
         <v>601/2</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -7369,20 +8107,24 @@
       <c r="I160" s="9">
         <v>7</v>
       </c>
-      <c r="J160" s="1" t="s">
+      <c r="J160" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K160" s="23"/>
+      <c r="L160" s="23"/>
+      <c r="M160" s="23"/>
+      <c r="N160" s="23"/>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>157</v>
       </c>
       <c r="B161" s="1">
-        <f>B160</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="C161" s="1" t="str">
-        <f>C160</f>
+        <f t="shared" si="1"/>
         <v>601/2</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -7403,20 +8145,24 @@
       <c r="I161" s="9">
         <v>0</v>
       </c>
-      <c r="J161" s="1" t="s">
+      <c r="J161" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K161" s="23"/>
+      <c r="L161" s="23"/>
+      <c r="M161" s="23"/>
+      <c r="N161" s="23"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162" s="7">
         <v>158</v>
       </c>
       <c r="B162" s="1">
-        <f>B161</f>
+        <f t="shared" si="1"/>
         <v>601</v>
       </c>
       <c r="C162" s="1" t="str">
-        <f>C161</f>
+        <f t="shared" si="1"/>
         <v>601/2</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -7437,11 +8183,15 @@
       <c r="I162" s="9">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J162" s="1" t="s">
+      <c r="J162" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K162" s="23"/>
+      <c r="L162" s="23"/>
+      <c r="M162" s="23"/>
+      <c r="N162" s="23"/>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163" s="7">
         <v>159</v>
       </c>
@@ -7469,20 +8219,24 @@
       <c r="I163" s="9">
         <v>4.2</v>
       </c>
-      <c r="J163" s="1" t="s">
+      <c r="J163" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K163" s="23"/>
+      <c r="L163" s="23"/>
+      <c r="M163" s="23"/>
+      <c r="N163" s="23"/>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164" s="7">
         <v>160</v>
       </c>
       <c r="B164" s="1">
-        <f>B163</f>
+        <f t="shared" ref="B164:C168" si="2">B163</f>
         <v>601</v>
       </c>
       <c r="C164" s="1" t="str">
-        <f>C163</f>
+        <f t="shared" si="2"/>
         <v>601/3</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -7503,20 +8257,24 @@
       <c r="I164" s="9">
         <v>0</v>
       </c>
-      <c r="J164" s="1" t="s">
+      <c r="J164" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K164" s="23"/>
+      <c r="L164" s="23"/>
+      <c r="M164" s="23"/>
+      <c r="N164" s="23"/>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165" s="7">
         <v>161</v>
       </c>
       <c r="B165" s="1">
-        <f>B164</f>
+        <f t="shared" si="2"/>
         <v>601</v>
       </c>
       <c r="C165" s="1" t="str">
-        <f>C164</f>
+        <f t="shared" si="2"/>
         <v>601/3</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -7537,20 +8295,24 @@
       <c r="I165" s="9">
         <v>7</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J165" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K165" s="23"/>
+      <c r="L165" s="23"/>
+      <c r="M165" s="23"/>
+      <c r="N165" s="23"/>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166" s="7">
         <v>162</v>
       </c>
       <c r="B166" s="1">
-        <f>B165</f>
+        <f t="shared" si="2"/>
         <v>601</v>
       </c>
       <c r="C166" s="1" t="str">
-        <f>C165</f>
+        <f t="shared" si="2"/>
         <v>601/3</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -7571,20 +8333,24 @@
       <c r="I166" s="9">
         <v>7</v>
       </c>
-      <c r="J166" s="1" t="s">
+      <c r="J166" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K166" s="23"/>
+      <c r="L166" s="23"/>
+      <c r="M166" s="23"/>
+      <c r="N166" s="23"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="7">
         <v>163</v>
       </c>
       <c r="B167" s="1">
-        <f>B166</f>
+        <f t="shared" si="2"/>
         <v>601</v>
       </c>
       <c r="C167" s="1" t="str">
-        <f>C166</f>
+        <f t="shared" si="2"/>
         <v>601/3</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -7605,20 +8371,24 @@
       <c r="I167" s="9">
         <v>0</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="J167" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K167" s="23"/>
+      <c r="L167" s="23"/>
+      <c r="M167" s="23"/>
+      <c r="N167" s="23"/>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="7">
         <v>164</v>
       </c>
       <c r="B168" s="1">
-        <f>B167</f>
+        <f t="shared" si="2"/>
         <v>601</v>
       </c>
       <c r="C168" s="1" t="str">
-        <f>C167</f>
+        <f t="shared" si="2"/>
         <v>601/3</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -7639,11 +8409,15 @@
       <c r="I168" s="9">
         <v>4.2</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="J168" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K168" s="23"/>
+      <c r="L168" s="23"/>
+      <c r="M168" s="23"/>
+      <c r="N168" s="23"/>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="7">
         <v>165</v>
       </c>
@@ -7671,20 +8445,24 @@
       <c r="I169" s="9">
         <v>3</v>
       </c>
-      <c r="J169" s="1" t="s">
+      <c r="J169" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K169" s="23"/>
+      <c r="L169" s="23"/>
+      <c r="M169" s="23"/>
+      <c r="N169" s="23"/>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="7">
         <v>166</v>
       </c>
       <c r="B170" s="1">
-        <f>B169</f>
+        <f t="shared" ref="B170:C174" si="3">B169</f>
         <v>601</v>
       </c>
       <c r="C170" s="1" t="str">
-        <f>C169</f>
+        <f t="shared" si="3"/>
         <v>601/4</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -7705,20 +8483,24 @@
       <c r="I170" s="9">
         <v>0</v>
       </c>
-      <c r="J170" s="1" t="s">
+      <c r="J170" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K170" s="23"/>
+      <c r="L170" s="23"/>
+      <c r="M170" s="23"/>
+      <c r="N170" s="23"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="7">
         <v>167</v>
       </c>
       <c r="B171" s="1">
-        <f>B170</f>
+        <f t="shared" si="3"/>
         <v>601</v>
       </c>
       <c r="C171" s="1" t="str">
-        <f>C170</f>
+        <f t="shared" si="3"/>
         <v>601/4</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -7739,20 +8521,24 @@
       <c r="I171" s="9">
         <v>1</v>
       </c>
-      <c r="J171" s="1" t="s">
+      <c r="J171" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K171" s="23"/>
+      <c r="L171" s="23"/>
+      <c r="M171" s="23"/>
+      <c r="N171" s="23"/>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="7">
         <v>168</v>
       </c>
       <c r="B172" s="1">
-        <f>B171</f>
+        <f t="shared" si="3"/>
         <v>601</v>
       </c>
       <c r="C172" s="1" t="str">
-        <f>C171</f>
+        <f t="shared" si="3"/>
         <v>601/4</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -7773,20 +8559,24 @@
       <c r="I172" s="9">
         <v>1</v>
       </c>
-      <c r="J172" s="1" t="s">
+      <c r="J172" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K172" s="23"/>
+      <c r="L172" s="23"/>
+      <c r="M172" s="23"/>
+      <c r="N172" s="23"/>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="7">
         <v>169</v>
       </c>
       <c r="B173" s="1">
-        <f>B172</f>
+        <f t="shared" si="3"/>
         <v>601</v>
       </c>
       <c r="C173" s="1" t="str">
-        <f>C172</f>
+        <f t="shared" si="3"/>
         <v>601/4</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -7807,20 +8597,24 @@
       <c r="I173" s="9">
         <v>0</v>
       </c>
-      <c r="J173" s="1" t="s">
+      <c r="J173" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K173" s="23"/>
+      <c r="L173" s="23"/>
+      <c r="M173" s="23"/>
+      <c r="N173" s="23"/>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="7">
         <v>170</v>
       </c>
       <c r="B174" s="1">
-        <f>B173</f>
+        <f t="shared" si="3"/>
         <v>601</v>
       </c>
       <c r="C174" s="1" t="str">
-        <f>C173</f>
+        <f t="shared" si="3"/>
         <v>601/4</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -7841,11 +8635,15 @@
       <c r="I174" s="9">
         <v>3</v>
       </c>
-      <c r="J174" s="1" t="s">
+      <c r="J174" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K174" s="23"/>
+      <c r="L174" s="23"/>
+      <c r="M174" s="23"/>
+      <c r="N174" s="23"/>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="7">
         <v>171</v>
       </c>
@@ -7873,20 +8671,24 @@
       <c r="I175" s="9">
         <v>4</v>
       </c>
-      <c r="J175" s="1" t="s">
+      <c r="J175" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K175" s="23"/>
+      <c r="L175" s="23"/>
+      <c r="M175" s="23"/>
+      <c r="N175" s="23"/>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="7">
         <v>172</v>
       </c>
       <c r="B176" s="1">
-        <f>B175</f>
+        <f t="shared" ref="B176:C180" si="4">B175</f>
         <v>601</v>
       </c>
       <c r="C176" s="1" t="str">
-        <f>C175</f>
+        <f t="shared" si="4"/>
         <v>601/5</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -7907,20 +8709,24 @@
       <c r="I176" s="9">
         <v>0</v>
       </c>
-      <c r="J176" s="1" t="s">
+      <c r="J176" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K176" s="23"/>
+      <c r="L176" s="23"/>
+      <c r="M176" s="23"/>
+      <c r="N176" s="23"/>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" s="7">
         <v>173</v>
       </c>
       <c r="B177" s="1">
-        <f>B176</f>
+        <f t="shared" si="4"/>
         <v>601</v>
       </c>
       <c r="C177" s="1" t="str">
-        <f>C176</f>
+        <f t="shared" si="4"/>
         <v>601/5</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -7941,20 +8747,24 @@
       <c r="I177" s="9">
         <v>1</v>
       </c>
-      <c r="J177" s="1" t="s">
+      <c r="J177" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K177" s="23"/>
+      <c r="L177" s="23"/>
+      <c r="M177" s="23"/>
+      <c r="N177" s="23"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" s="7">
         <v>174</v>
       </c>
       <c r="B178" s="1">
-        <f>B177</f>
+        <f t="shared" si="4"/>
         <v>601</v>
       </c>
       <c r="C178" s="1" t="str">
-        <f>C177</f>
+        <f t="shared" si="4"/>
         <v>601/5</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -7975,20 +8785,24 @@
       <c r="I178" s="9">
         <v>1</v>
       </c>
-      <c r="J178" s="1" t="s">
+      <c r="J178" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K178" s="23"/>
+      <c r="L178" s="23"/>
+      <c r="M178" s="23"/>
+      <c r="N178" s="23"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" s="7">
         <v>175</v>
       </c>
       <c r="B179" s="1">
-        <f>B178</f>
+        <f t="shared" si="4"/>
         <v>601</v>
       </c>
       <c r="C179" s="1" t="str">
-        <f>C178</f>
+        <f t="shared" si="4"/>
         <v>601/5</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -8009,20 +8823,24 @@
       <c r="I179" s="9">
         <v>0</v>
       </c>
-      <c r="J179" s="1" t="s">
+      <c r="J179" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K179" s="23"/>
+      <c r="L179" s="23"/>
+      <c r="M179" s="23"/>
+      <c r="N179" s="23"/>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" s="7">
         <v>176</v>
       </c>
       <c r="B180" s="1">
-        <f>B179</f>
+        <f t="shared" si="4"/>
         <v>601</v>
       </c>
       <c r="C180" s="1" t="str">
-        <f>C179</f>
+        <f t="shared" si="4"/>
         <v>601/5</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -8043,11 +8861,15 @@
       <c r="I180" s="9">
         <v>4</v>
       </c>
-      <c r="J180" s="1" t="s">
+      <c r="J180" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K180" s="23"/>
+      <c r="L180" s="23"/>
+      <c r="M180" s="23"/>
+      <c r="N180" s="23"/>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" s="7">
         <v>177</v>
       </c>
@@ -8075,20 +8897,24 @@
       <c r="I181" s="9">
         <v>4</v>
       </c>
-      <c r="J181" s="1" t="s">
+      <c r="J181" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K181" s="23"/>
+      <c r="L181" s="23"/>
+      <c r="M181" s="23"/>
+      <c r="N181" s="23"/>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" s="7">
         <v>178</v>
       </c>
       <c r="B182" s="1">
-        <f>B181</f>
+        <f t="shared" ref="B182:C186" si="5">B181</f>
         <v>601</v>
       </c>
       <c r="C182" s="1" t="str">
-        <f>C181</f>
+        <f t="shared" si="5"/>
         <v>601/6</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -8109,20 +8935,24 @@
       <c r="I182" s="9">
         <v>0</v>
       </c>
-      <c r="J182" s="1" t="s">
+      <c r="J182" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K182" s="23"/>
+      <c r="L182" s="23"/>
+      <c r="M182" s="23"/>
+      <c r="N182" s="23"/>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" s="7">
         <v>179</v>
       </c>
       <c r="B183" s="1">
-        <f>B182</f>
+        <f t="shared" si="5"/>
         <v>601</v>
       </c>
       <c r="C183" s="1" t="str">
-        <f>C182</f>
+        <f t="shared" si="5"/>
         <v>601/6</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -8143,20 +8973,24 @@
       <c r="I183" s="9">
         <v>1</v>
       </c>
-      <c r="J183" s="1" t="s">
+      <c r="J183" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K183" s="23"/>
+      <c r="L183" s="23"/>
+      <c r="M183" s="23"/>
+      <c r="N183" s="23"/>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" s="7">
         <v>180</v>
       </c>
       <c r="B184" s="1">
-        <f>B183</f>
+        <f t="shared" si="5"/>
         <v>601</v>
       </c>
       <c r="C184" s="1" t="str">
-        <f>C183</f>
+        <f t="shared" si="5"/>
         <v>601/6</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -8177,20 +9011,24 @@
       <c r="I184" s="9">
         <v>1</v>
       </c>
-      <c r="J184" s="1" t="s">
+      <c r="J184" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K184" s="23"/>
+      <c r="L184" s="23"/>
+      <c r="M184" s="23"/>
+      <c r="N184" s="23"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" s="7">
         <v>181</v>
       </c>
       <c r="B185" s="1">
-        <f>B184</f>
+        <f t="shared" si="5"/>
         <v>601</v>
       </c>
       <c r="C185" s="1" t="str">
-        <f>C184</f>
+        <f t="shared" si="5"/>
         <v>601/6</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -8211,20 +9049,24 @@
       <c r="I185" s="9">
         <v>0</v>
       </c>
-      <c r="J185" s="1" t="s">
+      <c r="J185" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K185" s="23"/>
+      <c r="L185" s="23"/>
+      <c r="M185" s="23"/>
+      <c r="N185" s="23"/>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" s="7">
         <v>182</v>
       </c>
       <c r="B186" s="1">
-        <f>B185</f>
+        <f t="shared" si="5"/>
         <v>601</v>
       </c>
       <c r="C186" s="1" t="str">
-        <f>C185</f>
+        <f t="shared" si="5"/>
         <v>601/6</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -8245,11 +9087,15 @@
       <c r="I186" s="9">
         <v>4</v>
       </c>
-      <c r="J186" s="1" t="s">
+      <c r="J186" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K186" s="23"/>
+      <c r="L186" s="23"/>
+      <c r="M186" s="23"/>
+      <c r="N186" s="23"/>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" s="7">
         <v>183</v>
       </c>
@@ -8277,20 +9123,24 @@
       <c r="I187" s="9">
         <v>5.6</v>
       </c>
-      <c r="J187" s="1" t="s">
+      <c r="J187" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K187" s="23"/>
+      <c r="L187" s="23"/>
+      <c r="M187" s="23"/>
+      <c r="N187" s="23"/>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" s="7">
         <v>184</v>
       </c>
       <c r="B188" s="1">
-        <f>B187</f>
+        <f t="shared" ref="B188:C192" si="6">B187</f>
         <v>601</v>
       </c>
       <c r="C188" s="1" t="str">
-        <f>C187</f>
+        <f t="shared" si="6"/>
         <v>601/7</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -8311,20 +9161,24 @@
       <c r="I188" s="9">
         <v>0</v>
       </c>
-      <c r="J188" s="1" t="s">
+      <c r="J188" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K188" s="23"/>
+      <c r="L188" s="23"/>
+      <c r="M188" s="23"/>
+      <c r="N188" s="23"/>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" s="7">
         <v>185</v>
       </c>
       <c r="B189" s="1">
-        <f>B188</f>
+        <f t="shared" si="6"/>
         <v>601</v>
       </c>
       <c r="C189" s="1" t="str">
-        <f>C188</f>
+        <f t="shared" si="6"/>
         <v>601/7</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -8345,20 +9199,24 @@
       <c r="I189" s="9">
         <v>1</v>
       </c>
-      <c r="J189" s="1" t="s">
+      <c r="J189" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K189" s="23"/>
+      <c r="L189" s="23"/>
+      <c r="M189" s="23"/>
+      <c r="N189" s="23"/>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" s="7">
         <v>186</v>
       </c>
       <c r="B190" s="1">
-        <f>B189</f>
+        <f t="shared" si="6"/>
         <v>601</v>
       </c>
       <c r="C190" s="1" t="str">
-        <f>C189</f>
+        <f t="shared" si="6"/>
         <v>601/7</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -8379,20 +9237,24 @@
       <c r="I190" s="9">
         <v>1</v>
       </c>
-      <c r="J190" s="1" t="s">
+      <c r="J190" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K190" s="23"/>
+      <c r="L190" s="23"/>
+      <c r="M190" s="23"/>
+      <c r="N190" s="23"/>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" s="7">
         <v>187</v>
       </c>
       <c r="B191" s="1">
-        <f>B190</f>
+        <f t="shared" si="6"/>
         <v>601</v>
       </c>
       <c r="C191" s="1" t="str">
-        <f>C190</f>
+        <f t="shared" si="6"/>
         <v>601/7</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -8413,20 +9275,24 @@
       <c r="I191" s="9">
         <v>0</v>
       </c>
-      <c r="J191" s="1" t="s">
+      <c r="J191" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K191" s="23"/>
+      <c r="L191" s="23"/>
+      <c r="M191" s="23"/>
+      <c r="N191" s="23"/>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" s="7">
         <v>188</v>
       </c>
       <c r="B192" s="1">
-        <f>B191</f>
+        <f t="shared" si="6"/>
         <v>601</v>
       </c>
       <c r="C192" s="1" t="str">
-        <f>C191</f>
+        <f t="shared" si="6"/>
         <v>601/7</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -8447,11 +9313,15 @@
       <c r="I192" s="9">
         <v>5.6</v>
       </c>
-      <c r="J192" s="1" t="s">
+      <c r="J192" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K192" s="23"/>
+      <c r="L192" s="23"/>
+      <c r="M192" s="23"/>
+      <c r="N192" s="23"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193" s="7">
         <v>189</v>
       </c>
@@ -8477,20 +9347,24 @@
       <c r="I193" s="9">
         <v>4</v>
       </c>
-      <c r="J193" s="1" t="s">
+      <c r="J193" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="194" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K193" s="23"/>
+      <c r="L193" s="23"/>
+      <c r="M193" s="23"/>
+      <c r="N193" s="23"/>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194" s="7">
         <v>190</v>
       </c>
       <c r="B194" s="1">
-        <f>B193</f>
+        <f t="shared" ref="B194:C198" si="7">B193</f>
         <v>701</v>
       </c>
       <c r="C194" s="1" t="str">
-        <f>C193</f>
+        <f t="shared" si="7"/>
         <v>701/1</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -8509,20 +9383,24 @@
       <c r="I194" s="9">
         <v>0</v>
       </c>
-      <c r="J194" s="1" t="s">
+      <c r="J194" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="195" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K194" s="23"/>
+      <c r="L194" s="23"/>
+      <c r="M194" s="23"/>
+      <c r="N194" s="23"/>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195" s="7">
         <v>191</v>
       </c>
       <c r="B195" s="1">
-        <f>B194</f>
+        <f t="shared" si="7"/>
         <v>701</v>
       </c>
       <c r="C195" s="1" t="str">
-        <f>C194</f>
+        <f t="shared" si="7"/>
         <v>701/1</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -8541,20 +9419,24 @@
       <c r="I195" s="9">
         <v>6.5</v>
       </c>
-      <c r="J195" s="1" t="s">
+      <c r="J195" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K195" s="23"/>
+      <c r="L195" s="23"/>
+      <c r="M195" s="23"/>
+      <c r="N195" s="23"/>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196" s="7">
         <v>192</v>
       </c>
       <c r="B196" s="1">
-        <f>B195</f>
+        <f t="shared" si="7"/>
         <v>701</v>
       </c>
       <c r="C196" s="1" t="str">
-        <f>C195</f>
+        <f t="shared" si="7"/>
         <v>701/1</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -8573,20 +9455,24 @@
       <c r="I196" s="9">
         <v>6.5</v>
       </c>
-      <c r="J196" s="1" t="s">
+      <c r="J196" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K196" s="23"/>
+      <c r="L196" s="23"/>
+      <c r="M196" s="23"/>
+      <c r="N196" s="23"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197" s="7">
         <v>193</v>
       </c>
       <c r="B197" s="1">
-        <f>B196</f>
+        <f t="shared" si="7"/>
         <v>701</v>
       </c>
       <c r="C197" s="1" t="str">
-        <f>C196</f>
+        <f t="shared" si="7"/>
         <v>701/1</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -8605,20 +9491,24 @@
       <c r="I197" s="9">
         <v>0</v>
       </c>
-      <c r="J197" s="1" t="s">
+      <c r="J197" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K197" s="23"/>
+      <c r="L197" s="23"/>
+      <c r="M197" s="23"/>
+      <c r="N197" s="23"/>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198" s="7">
         <v>194</v>
       </c>
       <c r="B198" s="1">
-        <f>B197</f>
+        <f t="shared" si="7"/>
         <v>701</v>
       </c>
       <c r="C198" s="1" t="str">
-        <f>C197</f>
+        <f t="shared" si="7"/>
         <v>701/1</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -8637,11 +9527,15 @@
       <c r="I198" s="9">
         <v>4</v>
       </c>
-      <c r="J198" s="1" t="s">
+      <c r="J198" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K198" s="23"/>
+      <c r="L198" s="23"/>
+      <c r="M198" s="23"/>
+      <c r="N198" s="23"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199" s="7">
         <v>195</v>
       </c>
@@ -8667,20 +9561,24 @@
       <c r="I199" s="9">
         <v>4</v>
       </c>
-      <c r="J199" s="1" t="s">
+      <c r="J199" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K199" s="23"/>
+      <c r="L199" s="23"/>
+      <c r="M199" s="23"/>
+      <c r="N199" s="23"/>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200" s="7">
         <v>196</v>
       </c>
       <c r="B200" s="1">
-        <f>B199</f>
+        <f t="shared" ref="B200:C204" si="8">B199</f>
         <v>701</v>
       </c>
       <c r="C200" s="1" t="str">
-        <f>C199</f>
+        <f t="shared" si="8"/>
         <v>701/2</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -8699,20 +9597,24 @@
       <c r="I200" s="9">
         <v>0</v>
       </c>
-      <c r="J200" s="1" t="s">
+      <c r="J200" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="201" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K200" s="23"/>
+      <c r="L200" s="23"/>
+      <c r="M200" s="23"/>
+      <c r="N200" s="23"/>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201" s="7">
         <v>197</v>
       </c>
       <c r="B201" s="1">
-        <f>B200</f>
+        <f t="shared" si="8"/>
         <v>701</v>
       </c>
       <c r="C201" s="1" t="str">
-        <f>C200</f>
+        <f t="shared" si="8"/>
         <v>701/2</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -8731,20 +9633,24 @@
       <c r="I201" s="9">
         <v>6.5</v>
       </c>
-      <c r="J201" s="1" t="s">
+      <c r="J201" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="202" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K201" s="23"/>
+      <c r="L201" s="23"/>
+      <c r="M201" s="23"/>
+      <c r="N201" s="23"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202" s="7">
         <v>198</v>
       </c>
       <c r="B202" s="1">
-        <f>B201</f>
+        <f t="shared" si="8"/>
         <v>701</v>
       </c>
       <c r="C202" s="1" t="str">
-        <f>C201</f>
+        <f t="shared" si="8"/>
         <v>701/2</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -8763,20 +9669,24 @@
       <c r="I202" s="9">
         <v>6.5</v>
       </c>
-      <c r="J202" s="1" t="s">
+      <c r="J202" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="203" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K202" s="23"/>
+      <c r="L202" s="23"/>
+      <c r="M202" s="23"/>
+      <c r="N202" s="23"/>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203" s="7">
         <v>199</v>
       </c>
       <c r="B203" s="1">
-        <f>B202</f>
+        <f t="shared" si="8"/>
         <v>701</v>
       </c>
       <c r="C203" s="1" t="str">
-        <f>C202</f>
+        <f t="shared" si="8"/>
         <v>701/2</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -8795,20 +9705,24 @@
       <c r="I203" s="9">
         <v>0</v>
       </c>
-      <c r="J203" s="1" t="s">
+      <c r="J203" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K203" s="23"/>
+      <c r="L203" s="23"/>
+      <c r="M203" s="23"/>
+      <c r="N203" s="23"/>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204" s="7">
         <v>200</v>
       </c>
       <c r="B204" s="1">
-        <f>B203</f>
+        <f t="shared" si="8"/>
         <v>701</v>
       </c>
       <c r="C204" s="1" t="str">
-        <f>C203</f>
+        <f t="shared" si="8"/>
         <v>701/2</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -8827,11 +9741,15 @@
       <c r="I204" s="9">
         <v>4</v>
       </c>
-      <c r="J204" s="1" t="s">
+      <c r="J204" s="10" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K204" s="23"/>
+      <c r="L204" s="23"/>
+      <c r="M204" s="23"/>
+      <c r="N204" s="23"/>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205" s="7">
         <v>201</v>
       </c>
@@ -8859,20 +9777,24 @@
       <c r="I205" s="9">
         <v>0</v>
       </c>
-      <c r="J205" s="1" t="s">
+      <c r="J205" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K205" s="23"/>
+      <c r="L205" s="23"/>
+      <c r="M205" s="23"/>
+      <c r="N205" s="23"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206" s="7">
         <v>202</v>
       </c>
       <c r="B206" s="1">
-        <f>B205</f>
+        <f t="shared" ref="B206:C208" si="9">B205</f>
         <v>701</v>
       </c>
       <c r="C206" s="1" t="str">
-        <f>C205</f>
+        <f t="shared" si="9"/>
         <v>701/3</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -8893,20 +9815,24 @@
       <c r="I206" s="9">
         <v>1</v>
       </c>
-      <c r="J206" s="1" t="s">
+      <c r="J206" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K206" s="23"/>
+      <c r="L206" s="23"/>
+      <c r="M206" s="23"/>
+      <c r="N206" s="23"/>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207" s="7">
         <v>203</v>
       </c>
       <c r="B207" s="1">
-        <f>B206</f>
+        <f t="shared" si="9"/>
         <v>701</v>
       </c>
       <c r="C207" s="1" t="str">
-        <f>C206</f>
+        <f t="shared" si="9"/>
         <v>701/3</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -8927,20 +9853,24 @@
       <c r="I207" s="9">
         <v>1</v>
       </c>
-      <c r="J207" s="1" t="s">
+      <c r="J207" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K207" s="23"/>
+      <c r="L207" s="23"/>
+      <c r="M207" s="23"/>
+      <c r="N207" s="23"/>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208" s="7">
         <v>204</v>
       </c>
       <c r="B208" s="1">
-        <f>B207</f>
+        <f t="shared" si="9"/>
         <v>701</v>
       </c>
       <c r="C208" s="1" t="str">
-        <f>C207</f>
+        <f t="shared" si="9"/>
         <v>701/3</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -8961,11 +9891,15 @@
       <c r="I208" s="9">
         <v>0</v>
       </c>
-      <c r="J208" s="1" t="s">
+      <c r="J208" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K208" s="23"/>
+      <c r="L208" s="23"/>
+      <c r="M208" s="23"/>
+      <c r="N208" s="23"/>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209" s="7">
         <v>205</v>
       </c>
@@ -8993,20 +9927,24 @@
       <c r="I209" s="9">
         <v>0</v>
       </c>
-      <c r="J209" s="1" t="s">
+      <c r="J209" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K209" s="23"/>
+      <c r="L209" s="23"/>
+      <c r="M209" s="23"/>
+      <c r="N209" s="23"/>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210" s="7">
         <v>206</v>
       </c>
       <c r="B210" s="1">
-        <f>B209</f>
+        <f t="shared" ref="B210:C212" si="10">B209</f>
         <v>701</v>
       </c>
       <c r="C210" s="1" t="str">
-        <f>C209</f>
+        <f t="shared" si="10"/>
         <v>701/4</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -9027,20 +9965,24 @@
       <c r="I210" s="9">
         <v>1</v>
       </c>
-      <c r="J210" s="1" t="s">
+      <c r="J210" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K210" s="23"/>
+      <c r="L210" s="23"/>
+      <c r="M210" s="23"/>
+      <c r="N210" s="23"/>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211" s="7">
         <v>207</v>
       </c>
       <c r="B211" s="1">
-        <f>B210</f>
+        <f t="shared" si="10"/>
         <v>701</v>
       </c>
       <c r="C211" s="1" t="str">
-        <f>C210</f>
+        <f t="shared" si="10"/>
         <v>701/4</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -9061,20 +10003,24 @@
       <c r="I211" s="9">
         <v>1</v>
       </c>
-      <c r="J211" s="1" t="s">
+      <c r="J211" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K211" s="23"/>
+      <c r="L211" s="23"/>
+      <c r="M211" s="23"/>
+      <c r="N211" s="23"/>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212" s="7">
         <v>208</v>
       </c>
       <c r="B212" s="1">
-        <f>B211</f>
+        <f t="shared" si="10"/>
         <v>701</v>
       </c>
       <c r="C212" s="1" t="str">
-        <f>C211</f>
+        <f t="shared" si="10"/>
         <v>701/4</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -9095,11 +10041,15 @@
       <c r="I212" s="9">
         <v>0</v>
       </c>
-      <c r="J212" s="1" t="s">
+      <c r="J212" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K212" s="23"/>
+      <c r="L212" s="23"/>
+      <c r="M212" s="23"/>
+      <c r="N212" s="23"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213" s="7">
         <v>209</v>
       </c>
@@ -9125,20 +10075,24 @@
       <c r="I213" s="9">
         <v>5.4</v>
       </c>
-      <c r="J213" s="1" t="s">
+      <c r="J213" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K213" s="23"/>
+      <c r="L213" s="23"/>
+      <c r="M213" s="23"/>
+      <c r="N213" s="23"/>
+    </row>
+    <row r="214" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="7">
         <v>210</v>
       </c>
       <c r="B214" s="1">
-        <f>B213</f>
+        <f t="shared" ref="B214:B222" si="11">B213</f>
         <v>701</v>
       </c>
       <c r="C214" s="1" t="str">
-        <f>C213</f>
+        <f t="shared" ref="C214:C222" si="12">C213</f>
         <v>701/5</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -9157,20 +10111,24 @@
       <c r="I214" s="9">
         <v>0</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="J214" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="215" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K214" s="23"/>
+      <c r="L214" s="23"/>
+      <c r="M214" s="23"/>
+      <c r="N214" s="23"/>
+    </row>
+    <row r="215" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="7">
         <v>211</v>
       </c>
       <c r="B215" s="1">
-        <f>B214</f>
+        <f t="shared" si="11"/>
         <v>701</v>
       </c>
       <c r="C215" s="1" t="str">
-        <f>C214</f>
+        <f t="shared" si="12"/>
         <v>701/5</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -9189,20 +10147,24 @@
       <c r="I215" s="9">
         <v>1.7</v>
       </c>
-      <c r="J215" s="1" t="s">
+      <c r="J215" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="216" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K215" s="23"/>
+      <c r="L215" s="23"/>
+      <c r="M215" s="23"/>
+      <c r="N215" s="23"/>
+    </row>
+    <row r="216" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="7">
         <v>212</v>
       </c>
       <c r="B216" s="1">
-        <f>B215</f>
+        <f t="shared" si="11"/>
         <v>701</v>
       </c>
       <c r="C216" s="1" t="str">
-        <f>C215</f>
+        <f t="shared" si="12"/>
         <v>701/5</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -9221,20 +10183,24 @@
       <c r="I216" s="9">
         <v>0</v>
       </c>
-      <c r="J216" s="1" t="s">
+      <c r="J216" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K216" s="23"/>
+      <c r="L216" s="23"/>
+      <c r="M216" s="23"/>
+      <c r="N216" s="23"/>
+    </row>
+    <row r="217" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="7">
         <v>213</v>
       </c>
       <c r="B217" s="1">
-        <f>B216</f>
+        <f t="shared" si="11"/>
         <v>701</v>
       </c>
       <c r="C217" s="1" t="str">
-        <f>C216</f>
+        <f t="shared" si="12"/>
         <v>701/5</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -9253,20 +10219,24 @@
       <c r="I217" s="9">
         <v>1.5</v>
       </c>
-      <c r="J217" s="1" t="s">
+      <c r="J217" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="218" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K217" s="23"/>
+      <c r="L217" s="23"/>
+      <c r="M217" s="23"/>
+      <c r="N217" s="23"/>
+    </row>
+    <row r="218" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="7">
         <v>214</v>
       </c>
       <c r="B218" s="1">
-        <f>B217</f>
+        <f t="shared" si="11"/>
         <v>701</v>
       </c>
       <c r="C218" s="1" t="str">
-        <f>C217</f>
+        <f t="shared" si="12"/>
         <v>701/5</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -9285,20 +10255,24 @@
       <c r="I218" s="9">
         <v>1.5</v>
       </c>
-      <c r="J218" s="1" t="s">
+      <c r="J218" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="219" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K218" s="23"/>
+      <c r="L218" s="23"/>
+      <c r="M218" s="23"/>
+      <c r="N218" s="23"/>
+    </row>
+    <row r="219" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="7">
         <v>215</v>
       </c>
       <c r="B219" s="1">
-        <f>B218</f>
+        <f t="shared" si="11"/>
         <v>701</v>
       </c>
       <c r="C219" s="1" t="str">
-        <f>C218</f>
+        <f t="shared" si="12"/>
         <v>701/5</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -9317,20 +10291,24 @@
       <c r="I219" s="9">
         <v>0</v>
       </c>
-      <c r="J219" s="1" t="s">
+      <c r="J219" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="220" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K219" s="23"/>
+      <c r="L219" s="23"/>
+      <c r="M219" s="23"/>
+      <c r="N219" s="23"/>
+    </row>
+    <row r="220" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="7">
         <v>216</v>
       </c>
       <c r="B220" s="1">
-        <f>B219</f>
+        <f t="shared" si="11"/>
         <v>701</v>
       </c>
       <c r="C220" s="1" t="str">
-        <f>C219</f>
+        <f t="shared" si="12"/>
         <v>701/5</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -9349,20 +10327,24 @@
       <c r="I220" s="9">
         <v>1.7</v>
       </c>
-      <c r="J220" s="1" t="s">
+      <c r="J220" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="221" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K220" s="23"/>
+      <c r="L220" s="23"/>
+      <c r="M220" s="23"/>
+      <c r="N220" s="23"/>
+    </row>
+    <row r="221" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="7">
         <v>217</v>
       </c>
       <c r="B221" s="1">
-        <f>B220</f>
+        <f t="shared" si="11"/>
         <v>701</v>
       </c>
       <c r="C221" s="1" t="str">
-        <f>C220</f>
+        <f t="shared" si="12"/>
         <v>701/5</v>
       </c>
       <c r="D221" s="1" t="s">
@@ -9381,20 +10363,24 @@
       <c r="I221" s="9">
         <v>0</v>
       </c>
-      <c r="J221" s="1" t="s">
+      <c r="J221" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K221" s="23"/>
+      <c r="L221" s="23"/>
+      <c r="M221" s="23"/>
+      <c r="N221" s="23"/>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222" s="7">
         <v>218</v>
       </c>
       <c r="B222" s="1">
-        <f>B221</f>
+        <f t="shared" si="11"/>
         <v>701</v>
       </c>
       <c r="C222" s="1" t="str">
-        <f>C221</f>
+        <f t="shared" si="12"/>
         <v>701/5</v>
       </c>
       <c r="D222" s="1" t="s">
@@ -9413,11 +10399,15 @@
       <c r="I222" s="9">
         <v>5.4</v>
       </c>
-      <c r="J222" s="1" t="s">
+      <c r="J222" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K222" s="23"/>
+      <c r="L222" s="23"/>
+      <c r="M222" s="23"/>
+      <c r="N222" s="23"/>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223" s="7">
         <v>219</v>
       </c>
@@ -9443,20 +10433,24 @@
       <c r="I223" s="9">
         <v>5.4</v>
       </c>
-      <c r="J223" s="1" t="s">
+      <c r="J223" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="224" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K223" s="23"/>
+      <c r="L223" s="23"/>
+      <c r="M223" s="23"/>
+      <c r="N223" s="23"/>
+    </row>
+    <row r="224" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="7">
         <v>220</v>
       </c>
       <c r="B224" s="1">
-        <f>B223</f>
+        <f t="shared" ref="B224:B232" si="13">B223</f>
         <v>701</v>
       </c>
       <c r="C224" s="1" t="str">
-        <f>C223</f>
+        <f t="shared" ref="C224:C232" si="14">C223</f>
         <v>701/6</v>
       </c>
       <c r="D224" s="1" t="s">
@@ -9475,20 +10469,24 @@
       <c r="I224" s="9">
         <v>0</v>
       </c>
-      <c r="J224" s="1" t="s">
+      <c r="J224" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="225" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K224" s="23"/>
+      <c r="L224" s="23"/>
+      <c r="M224" s="23"/>
+      <c r="N224" s="23"/>
+    </row>
+    <row r="225" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="7">
         <v>221</v>
       </c>
       <c r="B225" s="1">
-        <f>B224</f>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="C225" s="1" t="str">
-        <f>C224</f>
+        <f t="shared" si="14"/>
         <v>701/6</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -9507,20 +10505,24 @@
       <c r="I225" s="9">
         <v>1.7</v>
       </c>
-      <c r="J225" s="1" t="s">
+      <c r="J225" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="226" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K225" s="23"/>
+      <c r="L225" s="23"/>
+      <c r="M225" s="23"/>
+      <c r="N225" s="23"/>
+    </row>
+    <row r="226" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="7">
         <v>222</v>
       </c>
       <c r="B226" s="1">
-        <f>B225</f>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="C226" s="1" t="str">
-        <f>C225</f>
+        <f t="shared" si="14"/>
         <v>701/6</v>
       </c>
       <c r="D226" s="1" t="s">
@@ -9539,20 +10541,24 @@
       <c r="I226" s="9">
         <v>0</v>
       </c>
-      <c r="J226" s="1" t="s">
+      <c r="J226" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="227" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K226" s="23"/>
+      <c r="L226" s="23"/>
+      <c r="M226" s="23"/>
+      <c r="N226" s="23"/>
+    </row>
+    <row r="227" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="7">
         <v>223</v>
       </c>
       <c r="B227" s="1">
-        <f>B226</f>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="C227" s="1" t="str">
-        <f>C226</f>
+        <f t="shared" si="14"/>
         <v>701/6</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -9571,20 +10577,24 @@
       <c r="I227" s="9">
         <v>1.5</v>
       </c>
-      <c r="J227" s="1" t="s">
+      <c r="J227" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K227" s="23"/>
+      <c r="L227" s="23"/>
+      <c r="M227" s="23"/>
+      <c r="N227" s="23"/>
+    </row>
+    <row r="228" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="7">
         <v>224</v>
       </c>
       <c r="B228" s="1">
-        <f>B227</f>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="C228" s="1" t="str">
-        <f>C227</f>
+        <f t="shared" si="14"/>
         <v>701/6</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -9603,20 +10613,24 @@
       <c r="I228" s="9">
         <v>1.5</v>
       </c>
-      <c r="J228" s="1" t="s">
+      <c r="J228" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="229" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K228" s="23"/>
+      <c r="L228" s="23"/>
+      <c r="M228" s="23"/>
+      <c r="N228" s="23"/>
+    </row>
+    <row r="229" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="7">
         <v>225</v>
       </c>
       <c r="B229" s="1">
-        <f>B228</f>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="C229" s="1" t="str">
-        <f>C228</f>
+        <f t="shared" si="14"/>
         <v>701/6</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -9635,20 +10649,24 @@
       <c r="I229" s="9">
         <v>0</v>
       </c>
-      <c r="J229" s="1" t="s">
+      <c r="J229" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="230" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K229" s="23"/>
+      <c r="L229" s="23"/>
+      <c r="M229" s="23"/>
+      <c r="N229" s="23"/>
+    </row>
+    <row r="230" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="7">
         <v>226</v>
       </c>
       <c r="B230" s="1">
-        <f>B229</f>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="C230" s="1" t="str">
-        <f>C229</f>
+        <f t="shared" si="14"/>
         <v>701/6</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -9667,20 +10685,24 @@
       <c r="I230" s="9">
         <v>1.7</v>
       </c>
-      <c r="J230" s="1" t="s">
+      <c r="J230" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="231" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K230" s="23"/>
+      <c r="L230" s="23"/>
+      <c r="M230" s="23"/>
+      <c r="N230" s="23"/>
+    </row>
+    <row r="231" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="7">
         <v>227</v>
       </c>
       <c r="B231" s="1">
-        <f>B230</f>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="C231" s="1" t="str">
-        <f>C230</f>
+        <f t="shared" si="14"/>
         <v>701/6</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -9699,20 +10721,24 @@
       <c r="I231" s="9">
         <v>0</v>
       </c>
-      <c r="J231" s="1" t="s">
+      <c r="J231" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K231" s="23"/>
+      <c r="L231" s="23"/>
+      <c r="M231" s="23"/>
+      <c r="N231" s="23"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232" s="7">
         <v>228</v>
       </c>
       <c r="B232" s="1">
-        <f>B231</f>
+        <f t="shared" si="13"/>
         <v>701</v>
       </c>
       <c r="C232" s="1" t="str">
-        <f>C231</f>
+        <f t="shared" si="14"/>
         <v>701/6</v>
       </c>
       <c r="D232" s="1" t="s">
@@ -9731,11 +10757,15 @@
       <c r="I232" s="9">
         <v>5.4</v>
       </c>
-      <c r="J232" s="1" t="s">
+      <c r="J232" s="10" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K232" s="23"/>
+      <c r="L232" s="23"/>
+      <c r="M232" s="23"/>
+      <c r="N232" s="23"/>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233" s="7">
         <v>229</v>
       </c>
@@ -9763,20 +10793,24 @@
       <c r="I233" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J233" s="1" t="s">
+      <c r="J233" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K233" s="23"/>
+      <c r="L233" s="23"/>
+      <c r="M233" s="23"/>
+      <c r="N233" s="23"/>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234" s="7">
         <v>230</v>
       </c>
       <c r="B234" s="1">
-        <f>B233</f>
+        <f t="shared" ref="B234:C238" si="15">B233</f>
         <v>801</v>
       </c>
       <c r="C234" s="1" t="str">
-        <f>C233</f>
+        <f t="shared" si="15"/>
         <v>801/1</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -9797,20 +10831,24 @@
       <c r="I234" s="9">
         <v>0</v>
       </c>
-      <c r="J234" s="1" t="s">
+      <c r="J234" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K234" s="23"/>
+      <c r="L234" s="23"/>
+      <c r="M234" s="23"/>
+      <c r="N234" s="23"/>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235" s="7">
         <v>231</v>
       </c>
       <c r="B235" s="1">
-        <f>B234</f>
+        <f t="shared" si="15"/>
         <v>801</v>
       </c>
       <c r="C235" s="1" t="str">
-        <f>C234</f>
+        <f t="shared" si="15"/>
         <v>801/1</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -9831,20 +10869,24 @@
       <c r="I235" s="9">
         <v>6.7</v>
       </c>
-      <c r="J235" s="1" t="s">
+      <c r="J235" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K235" s="23"/>
+      <c r="L235" s="23"/>
+      <c r="M235" s="23"/>
+      <c r="N235" s="23"/>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236" s="7">
         <v>232</v>
       </c>
       <c r="B236" s="1">
-        <f>B235</f>
+        <f t="shared" si="15"/>
         <v>801</v>
       </c>
       <c r="C236" s="1" t="str">
-        <f>C235</f>
+        <f t="shared" si="15"/>
         <v>801/1</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -9865,20 +10907,24 @@
       <c r="I236" s="9">
         <v>6.7</v>
       </c>
-      <c r="J236" s="1" t="s">
+      <c r="J236" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K236" s="23"/>
+      <c r="L236" s="23"/>
+      <c r="M236" s="23"/>
+      <c r="N236" s="23"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237" s="7">
         <v>233</v>
       </c>
       <c r="B237" s="1">
-        <f>B236</f>
+        <f t="shared" si="15"/>
         <v>801</v>
       </c>
       <c r="C237" s="1" t="str">
-        <f>C236</f>
+        <f t="shared" si="15"/>
         <v>801/1</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -9899,20 +10945,24 @@
       <c r="I237" s="9">
         <v>0</v>
       </c>
-      <c r="J237" s="1" t="s">
+      <c r="J237" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K237" s="23"/>
+      <c r="L237" s="23"/>
+      <c r="M237" s="23"/>
+      <c r="N237" s="23"/>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238" s="7">
         <v>234</v>
       </c>
       <c r="B238" s="1">
-        <f>B237</f>
+        <f t="shared" si="15"/>
         <v>801</v>
       </c>
       <c r="C238" s="1" t="str">
-        <f>C237</f>
+        <f t="shared" si="15"/>
         <v>801/1</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -9933,11 +10983,15 @@
       <c r="I238" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J238" s="1" t="s">
+      <c r="J238" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K238" s="23"/>
+      <c r="L238" s="23"/>
+      <c r="M238" s="23"/>
+      <c r="N238" s="23"/>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239" s="7">
         <v>235</v>
       </c>
@@ -9965,20 +11019,24 @@
       <c r="I239" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J239" s="1" t="s">
+      <c r="J239" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K239" s="23"/>
+      <c r="L239" s="23"/>
+      <c r="M239" s="23"/>
+      <c r="N239" s="23"/>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240" s="7">
         <v>236</v>
       </c>
       <c r="B240" s="1">
-        <f>B239</f>
+        <f t="shared" ref="B240:C244" si="16">B239</f>
         <v>801</v>
       </c>
       <c r="C240" s="1" t="str">
-        <f>C239</f>
+        <f t="shared" si="16"/>
         <v>801/2</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -9999,20 +11057,24 @@
       <c r="I240" s="9">
         <v>0</v>
       </c>
-      <c r="J240" s="1" t="s">
+      <c r="J240" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K240" s="23"/>
+      <c r="L240" s="23"/>
+      <c r="M240" s="23"/>
+      <c r="N240" s="23"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241" s="7">
         <v>237</v>
       </c>
       <c r="B241" s="1">
-        <f>B240</f>
+        <f t="shared" si="16"/>
         <v>801</v>
       </c>
       <c r="C241" s="1" t="str">
-        <f>C240</f>
+        <f t="shared" si="16"/>
         <v>801/2</v>
       </c>
       <c r="D241" s="1" t="s">
@@ -10033,20 +11095,24 @@
       <c r="I241" s="9">
         <v>6.7</v>
       </c>
-      <c r="J241" s="1" t="s">
+      <c r="J241" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K241" s="23"/>
+      <c r="L241" s="23"/>
+      <c r="M241" s="23"/>
+      <c r="N241" s="23"/>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242" s="7">
         <v>238</v>
       </c>
       <c r="B242" s="1">
-        <f>B241</f>
+        <f t="shared" si="16"/>
         <v>801</v>
       </c>
       <c r="C242" s="1" t="str">
-        <f>C241</f>
+        <f t="shared" si="16"/>
         <v>801/2</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -10067,20 +11133,24 @@
       <c r="I242" s="9">
         <v>6.7</v>
       </c>
-      <c r="J242" s="1" t="s">
+      <c r="J242" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K242" s="23"/>
+      <c r="L242" s="23"/>
+      <c r="M242" s="23"/>
+      <c r="N242" s="23"/>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243" s="7">
         <v>239</v>
       </c>
       <c r="B243" s="1">
-        <f>B242</f>
+        <f t="shared" si="16"/>
         <v>801</v>
       </c>
       <c r="C243" s="1" t="str">
-        <f>C242</f>
+        <f t="shared" si="16"/>
         <v>801/2</v>
       </c>
       <c r="D243" s="1" t="s">
@@ -10101,20 +11171,24 @@
       <c r="I243" s="9">
         <v>0</v>
       </c>
-      <c r="J243" s="1" t="s">
+      <c r="J243" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K243" s="23"/>
+      <c r="L243" s="23"/>
+      <c r="M243" s="23"/>
+      <c r="N243" s="23"/>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244" s="7">
         <v>240</v>
       </c>
       <c r="B244" s="1">
-        <f>B243</f>
+        <f t="shared" si="16"/>
         <v>801</v>
       </c>
       <c r="C244" s="1" t="str">
-        <f>C243</f>
+        <f t="shared" si="16"/>
         <v>801/2</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -10135,11 +11209,15 @@
       <c r="I244" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J244" s="1" t="s">
+      <c r="J244" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K244" s="23"/>
+      <c r="L244" s="23"/>
+      <c r="M244" s="23"/>
+      <c r="N244" s="23"/>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245" s="7">
         <v>241</v>
       </c>
@@ -10165,20 +11243,24 @@
       <c r="I245" s="9">
         <v>0</v>
       </c>
-      <c r="J245" s="1" t="s">
+      <c r="J245" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K245" s="23"/>
+      <c r="L245" s="23"/>
+      <c r="M245" s="23"/>
+      <c r="N245" s="23"/>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246" s="7">
         <v>242</v>
       </c>
       <c r="B246" s="1">
-        <f>B245</f>
+        <f t="shared" ref="B246:B256" si="17">B245</f>
         <v>801</v>
       </c>
       <c r="C246" s="1" t="str">
-        <f>C245</f>
+        <f t="shared" ref="C246:C256" si="18">C245</f>
         <v>801/3</v>
       </c>
       <c r="D246" s="1" t="s">
@@ -10197,20 +11279,24 @@
       <c r="I246" s="9">
         <v>2.5</v>
       </c>
-      <c r="J246" s="1" t="s">
+      <c r="J246" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K246" s="23"/>
+      <c r="L246" s="23"/>
+      <c r="M246" s="23"/>
+      <c r="N246" s="23"/>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247" s="7">
         <v>243</v>
       </c>
       <c r="B247" s="1">
-        <f>B246</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C247" s="1" t="str">
-        <f>C246</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -10229,20 +11315,24 @@
       <c r="I247" s="9">
         <v>0</v>
       </c>
-      <c r="J247" s="1" t="s">
+      <c r="J247" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K247" s="23"/>
+      <c r="L247" s="23"/>
+      <c r="M247" s="23"/>
+      <c r="N247" s="23"/>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248" s="7">
         <v>244</v>
       </c>
       <c r="B248" s="1">
-        <f>B247</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C248" s="1" t="str">
-        <f>C247</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -10261,20 +11351,24 @@
       <c r="I248" s="9">
         <v>5.5</v>
       </c>
-      <c r="J248" s="1" t="s">
+      <c r="J248" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K248" s="23"/>
+      <c r="L248" s="23"/>
+      <c r="M248" s="23"/>
+      <c r="N248" s="23"/>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249" s="7">
         <v>245</v>
       </c>
       <c r="B249" s="1">
-        <f>B248</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C249" s="1" t="str">
-        <f>C248</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -10293,20 +11387,24 @@
       <c r="I249" s="9">
         <v>0</v>
       </c>
-      <c r="J249" s="1" t="s">
+      <c r="J249" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K249" s="23"/>
+      <c r="L249" s="23"/>
+      <c r="M249" s="23"/>
+      <c r="N249" s="23"/>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250" s="7">
         <v>246</v>
       </c>
       <c r="B250" s="1">
-        <f>B249</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C250" s="1" t="str">
-        <f>C249</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D250" s="1" t="s">
@@ -10325,20 +11423,24 @@
       <c r="I250" s="9">
         <v>2.5</v>
       </c>
-      <c r="J250" s="1" t="s">
+      <c r="J250" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K250" s="23"/>
+      <c r="L250" s="23"/>
+      <c r="M250" s="23"/>
+      <c r="N250" s="23"/>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251" s="7">
         <v>247</v>
       </c>
       <c r="B251" s="1">
-        <f>B250</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C251" s="1" t="str">
-        <f>C250</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -10357,20 +11459,24 @@
       <c r="I251" s="9">
         <v>2.5</v>
       </c>
-      <c r="J251" s="1" t="s">
+      <c r="J251" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K251" s="23"/>
+      <c r="L251" s="23"/>
+      <c r="M251" s="23"/>
+      <c r="N251" s="23"/>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252" s="7">
         <v>248</v>
       </c>
       <c r="B252" s="1">
-        <f>B251</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C252" s="1" t="str">
-        <f>C251</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D252" s="1" t="s">
@@ -10389,20 +11495,24 @@
       <c r="I252" s="9">
         <v>0</v>
       </c>
-      <c r="J252" s="1" t="s">
+      <c r="J252" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K252" s="23"/>
+      <c r="L252" s="23"/>
+      <c r="M252" s="23"/>
+      <c r="N252" s="23"/>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253" s="7">
         <v>249</v>
       </c>
       <c r="B253" s="1">
-        <f>B252</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C253" s="1" t="str">
-        <f>C252</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -10421,20 +11531,24 @@
       <c r="I253" s="9">
         <v>5.5</v>
       </c>
-      <c r="J253" s="1" t="s">
+      <c r="J253" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K253" s="23"/>
+      <c r="L253" s="23"/>
+      <c r="M253" s="23"/>
+      <c r="N253" s="23"/>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254" s="7">
         <v>250</v>
       </c>
       <c r="B254" s="1">
-        <f>B253</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C254" s="1" t="str">
-        <f>C253</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -10453,20 +11567,24 @@
       <c r="I254" s="9">
         <v>0</v>
       </c>
-      <c r="J254" s="1" t="s">
+      <c r="J254" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K254" s="23"/>
+      <c r="L254" s="23"/>
+      <c r="M254" s="23"/>
+      <c r="N254" s="23"/>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255" s="7">
         <v>251</v>
       </c>
       <c r="B255" s="1">
-        <f>B254</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C255" s="1" t="str">
-        <f>C254</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -10485,20 +11603,24 @@
       <c r="I255" s="9">
         <v>2.5</v>
       </c>
-      <c r="J255" s="1" t="s">
+      <c r="J255" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K255" s="23"/>
+      <c r="L255" s="23"/>
+      <c r="M255" s="23"/>
+      <c r="N255" s="23"/>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256" s="7">
         <v>252</v>
       </c>
       <c r="B256" s="1">
-        <f>B255</f>
+        <f t="shared" si="17"/>
         <v>801</v>
       </c>
       <c r="C256" s="1" t="str">
-        <f>C255</f>
+        <f t="shared" si="18"/>
         <v>801/3</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -10517,11 +11639,15 @@
       <c r="I256" s="9">
         <v>0</v>
       </c>
-      <c r="J256" s="1" t="s">
+      <c r="J256" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K256" s="23"/>
+      <c r="L256" s="23"/>
+      <c r="M256" s="23"/>
+      <c r="N256" s="23"/>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257" s="7">
         <v>253</v>
       </c>
@@ -10549,20 +11675,24 @@
       <c r="I257" s="9">
         <v>10</v>
       </c>
-      <c r="J257" s="1" t="s">
+      <c r="J257" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="258" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K257" s="23"/>
+      <c r="L257" s="23"/>
+      <c r="M257" s="23"/>
+      <c r="N257" s="23"/>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258" s="7">
         <v>254</v>
       </c>
       <c r="B258" s="1">
-        <f>B257</f>
+        <f t="shared" ref="B258:C260" si="19">B257</f>
         <v>901</v>
       </c>
       <c r="C258" s="1" t="str">
-        <f>C257</f>
+        <f t="shared" si="19"/>
         <v>901/1</v>
       </c>
       <c r="D258" s="1" t="s">
@@ -10583,20 +11713,24 @@
       <c r="I258" s="9">
         <v>0</v>
       </c>
-      <c r="J258" s="1" t="s">
+      <c r="J258" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="259" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K258" s="23"/>
+      <c r="L258" s="23"/>
+      <c r="M258" s="23"/>
+      <c r="N258" s="23"/>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259" s="7">
         <v>255</v>
       </c>
       <c r="B259" s="1">
-        <f>B258</f>
+        <f t="shared" si="19"/>
         <v>901</v>
       </c>
       <c r="C259" s="1" t="str">
-        <f>C258</f>
+        <f t="shared" si="19"/>
         <v>901/1</v>
       </c>
       <c r="D259" s="1" t="s">
@@ -10617,20 +11751,24 @@
       <c r="I259" s="9">
         <v>0</v>
       </c>
-      <c r="J259" s="1" t="s">
+      <c r="J259" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K259" s="23"/>
+      <c r="L259" s="23"/>
+      <c r="M259" s="23"/>
+      <c r="N259" s="23"/>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="7">
         <v>256</v>
       </c>
       <c r="B260" s="1">
-        <f>B259</f>
+        <f t="shared" si="19"/>
         <v>901</v>
       </c>
       <c r="C260" s="1" t="str">
-        <f>C259</f>
+        <f t="shared" si="19"/>
         <v>901/1</v>
       </c>
       <c r="D260" s="1" t="s">
@@ -10651,11 +11789,15 @@
       <c r="I260" s="9">
         <v>10</v>
       </c>
-      <c r="J260" s="1" t="s">
+      <c r="J260" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K260" s="23"/>
+      <c r="L260" s="23"/>
+      <c r="M260" s="23"/>
+      <c r="N260" s="23"/>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="7">
         <v>257</v>
       </c>
@@ -10683,20 +11825,24 @@
       <c r="I261" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J261" s="1" t="s">
+      <c r="J261" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K261" s="23"/>
+      <c r="L261" s="23"/>
+      <c r="M261" s="23"/>
+      <c r="N261" s="23"/>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="7">
         <v>258</v>
       </c>
       <c r="B262" s="1">
-        <f>B261</f>
+        <f t="shared" ref="B262:C266" si="20">B261</f>
         <v>901</v>
       </c>
       <c r="C262" s="1" t="str">
-        <f>C261</f>
+        <f t="shared" si="20"/>
         <v>901/2</v>
       </c>
       <c r="D262" s="1" t="s">
@@ -10717,20 +11863,24 @@
       <c r="I262" s="9">
         <v>0</v>
       </c>
-      <c r="J262" s="1" t="s">
+      <c r="J262" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K262" s="23"/>
+      <c r="L262" s="23"/>
+      <c r="M262" s="23"/>
+      <c r="N262" s="23"/>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="7">
         <v>259</v>
       </c>
       <c r="B263" s="1">
-        <f>B262</f>
+        <f t="shared" si="20"/>
         <v>901</v>
       </c>
       <c r="C263" s="1" t="str">
-        <f>C262</f>
+        <f t="shared" si="20"/>
         <v>901/2</v>
       </c>
       <c r="D263" s="1" t="s">
@@ -10751,20 +11901,24 @@
       <c r="I263" s="9">
         <v>10.5</v>
       </c>
-      <c r="J263" s="1" t="s">
+      <c r="J263" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K263" s="23"/>
+      <c r="L263" s="23"/>
+      <c r="M263" s="23"/>
+      <c r="N263" s="23"/>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="7">
         <v>260</v>
       </c>
       <c r="B264" s="1">
-        <f>B263</f>
+        <f t="shared" si="20"/>
         <v>901</v>
       </c>
       <c r="C264" s="1" t="str">
-        <f>C263</f>
+        <f t="shared" si="20"/>
         <v>901/2</v>
       </c>
       <c r="D264" s="1" t="s">
@@ -10785,20 +11939,24 @@
       <c r="I264" s="9">
         <v>10.5</v>
       </c>
-      <c r="J264" s="1" t="s">
+      <c r="J264" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K264" s="23"/>
+      <c r="L264" s="23"/>
+      <c r="M264" s="23"/>
+      <c r="N264" s="23"/>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="7">
         <v>261</v>
       </c>
       <c r="B265" s="1">
-        <f>B264</f>
+        <f t="shared" si="20"/>
         <v>901</v>
       </c>
       <c r="C265" s="1" t="str">
-        <f>C264</f>
+        <f t="shared" si="20"/>
         <v>901/2</v>
       </c>
       <c r="D265" s="1" t="s">
@@ -10819,20 +11977,24 @@
       <c r="I265" s="9">
         <v>0</v>
       </c>
-      <c r="J265" s="1" t="s">
+      <c r="J265" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K265" s="23"/>
+      <c r="L265" s="23"/>
+      <c r="M265" s="23"/>
+      <c r="N265" s="23"/>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="7">
         <v>262</v>
       </c>
       <c r="B266" s="1">
-        <f>B265</f>
+        <f t="shared" si="20"/>
         <v>901</v>
       </c>
       <c r="C266" s="1" t="str">
-        <f>C265</f>
+        <f t="shared" si="20"/>
         <v>901/2</v>
       </c>
       <c r="D266" s="1" t="s">
@@ -10853,11 +12015,15 @@
       <c r="I266" s="9">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J266" s="1" t="s">
+      <c r="J266" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K266" s="23"/>
+      <c r="L266" s="23"/>
+      <c r="M266" s="23"/>
+      <c r="N266" s="23"/>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="7">
         <v>263</v>
       </c>
@@ -10885,20 +12051,24 @@
       <c r="I267" s="9">
         <v>13</v>
       </c>
-      <c r="J267" s="1" t="s">
+      <c r="J267" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K267" s="23"/>
+      <c r="L267" s="23"/>
+      <c r="M267" s="23"/>
+      <c r="N267" s="23"/>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="7">
         <v>264</v>
       </c>
       <c r="B268" s="1">
-        <f>B267</f>
+        <f t="shared" ref="B268:C272" si="21">B267</f>
         <v>901</v>
       </c>
       <c r="C268" s="1" t="str">
-        <f>C267</f>
+        <f t="shared" si="21"/>
         <v>901/3</v>
       </c>
       <c r="D268" s="1" t="s">
@@ -10919,20 +12089,24 @@
       <c r="I268" s="9">
         <v>0</v>
       </c>
-      <c r="J268" s="1" t="s">
+      <c r="J268" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K268" s="23"/>
+      <c r="L268" s="23"/>
+      <c r="M268" s="23"/>
+      <c r="N268" s="23"/>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="7">
         <v>265</v>
       </c>
       <c r="B269" s="1">
-        <f>B268</f>
+        <f t="shared" si="21"/>
         <v>901</v>
       </c>
       <c r="C269" s="1" t="str">
-        <f>C268</f>
+        <f t="shared" si="21"/>
         <v>901/3</v>
       </c>
       <c r="D269" s="1" t="s">
@@ -10953,20 +12127,24 @@
       <c r="I269" s="9">
         <v>4.5</v>
       </c>
-      <c r="J269" s="1" t="s">
+      <c r="J269" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K269" s="23"/>
+      <c r="L269" s="23"/>
+      <c r="M269" s="23"/>
+      <c r="N269" s="23"/>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="7">
         <v>266</v>
       </c>
       <c r="B270" s="1">
-        <f>B269</f>
+        <f t="shared" si="21"/>
         <v>901</v>
       </c>
       <c r="C270" s="1" t="str">
-        <f>C269</f>
+        <f t="shared" si="21"/>
         <v>901/3</v>
       </c>
       <c r="D270" s="1" t="s">
@@ -10987,20 +12165,24 @@
       <c r="I270" s="9">
         <v>4.5</v>
       </c>
-      <c r="J270" s="1" t="s">
+      <c r="J270" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K270" s="23"/>
+      <c r="L270" s="23"/>
+      <c r="M270" s="23"/>
+      <c r="N270" s="23"/>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="7">
         <v>267</v>
       </c>
       <c r="B271" s="1">
-        <f>B270</f>
+        <f t="shared" si="21"/>
         <v>901</v>
       </c>
       <c r="C271" s="1" t="str">
-        <f>C270</f>
+        <f t="shared" si="21"/>
         <v>901/3</v>
       </c>
       <c r="D271" s="1" t="s">
@@ -11021,20 +12203,24 @@
       <c r="I271" s="9">
         <v>0</v>
       </c>
-      <c r="J271" s="1" t="s">
+      <c r="J271" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K271" s="23"/>
+      <c r="L271" s="23"/>
+      <c r="M271" s="23"/>
+      <c r="N271" s="23"/>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="7">
         <v>268</v>
       </c>
       <c r="B272" s="1">
-        <f>B271</f>
+        <f t="shared" si="21"/>
         <v>901</v>
       </c>
       <c r="C272" s="1" t="str">
-        <f>C271</f>
+        <f t="shared" si="21"/>
         <v>901/3</v>
       </c>
       <c r="D272" s="1" t="s">
@@ -11055,11 +12241,15 @@
       <c r="I272" s="9">
         <v>13</v>
       </c>
-      <c r="J272" s="1" t="s">
+      <c r="J272" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K272" s="23"/>
+      <c r="L272" s="23"/>
+      <c r="M272" s="23"/>
+      <c r="N272" s="23"/>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="7">
         <v>269</v>
       </c>
@@ -11087,20 +12277,24 @@
       <c r="I273" s="9">
         <v>7.5</v>
       </c>
-      <c r="J273" s="1" t="s">
+      <c r="J273" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K273" s="23"/>
+      <c r="L273" s="23"/>
+      <c r="M273" s="23"/>
+      <c r="N273" s="23"/>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="7">
         <v>270</v>
       </c>
       <c r="B274" s="1">
-        <f>B273</f>
+        <f t="shared" ref="B274:C278" si="22">B273</f>
         <v>901</v>
       </c>
       <c r="C274" s="1" t="str">
-        <f>C273</f>
+        <f t="shared" si="22"/>
         <v>901/4</v>
       </c>
       <c r="D274" s="1" t="s">
@@ -11121,20 +12315,24 @@
       <c r="I274" s="9">
         <v>0</v>
       </c>
-      <c r="J274" s="1" t="s">
+      <c r="J274" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K274" s="23"/>
+      <c r="L274" s="23"/>
+      <c r="M274" s="23"/>
+      <c r="N274" s="23"/>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="7">
         <v>271</v>
       </c>
       <c r="B275" s="1">
-        <f>B274</f>
+        <f t="shared" si="22"/>
         <v>901</v>
       </c>
       <c r="C275" s="1" t="str">
-        <f>C274</f>
+        <f t="shared" si="22"/>
         <v>901/4</v>
       </c>
       <c r="D275" s="1" t="s">
@@ -11155,20 +12353,24 @@
       <c r="I275" s="9">
         <v>4.5</v>
       </c>
-      <c r="J275" s="1" t="s">
+      <c r="J275" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K275" s="23"/>
+      <c r="L275" s="23"/>
+      <c r="M275" s="23"/>
+      <c r="N275" s="23"/>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="7">
         <v>272</v>
       </c>
       <c r="B276" s="1">
-        <f>B275</f>
+        <f t="shared" si="22"/>
         <v>901</v>
       </c>
       <c r="C276" s="1" t="str">
-        <f>C275</f>
+        <f t="shared" si="22"/>
         <v>901/4</v>
       </c>
       <c r="D276" s="1" t="s">
@@ -11189,20 +12391,24 @@
       <c r="I276" s="9">
         <v>4.5</v>
       </c>
-      <c r="J276" s="1" t="s">
+      <c r="J276" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K276" s="23"/>
+      <c r="L276" s="23"/>
+      <c r="M276" s="23"/>
+      <c r="N276" s="23"/>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="7">
         <v>273</v>
       </c>
       <c r="B277" s="1">
-        <f>B276</f>
+        <f t="shared" si="22"/>
         <v>901</v>
       </c>
       <c r="C277" s="1" t="str">
-        <f>C276</f>
+        <f t="shared" si="22"/>
         <v>901/4</v>
       </c>
       <c r="D277" s="1" t="s">
@@ -11223,20 +12429,24 @@
       <c r="I277" s="9">
         <v>0</v>
       </c>
-      <c r="J277" s="1" t="s">
+      <c r="J277" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K277" s="23"/>
+      <c r="L277" s="23"/>
+      <c r="M277" s="23"/>
+      <c r="N277" s="23"/>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="7">
         <v>274</v>
       </c>
       <c r="B278" s="1">
-        <f>B277</f>
+        <f t="shared" si="22"/>
         <v>901</v>
       </c>
       <c r="C278" s="1" t="str">
-        <f>C277</f>
+        <f t="shared" si="22"/>
         <v>901/4</v>
       </c>
       <c r="D278" s="1" t="s">
@@ -11257,11 +12467,15 @@
       <c r="I278" s="9">
         <v>7.5</v>
       </c>
-      <c r="J278" s="1" t="s">
+      <c r="J278" s="10" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K278" s="23"/>
+      <c r="L278" s="23"/>
+      <c r="M278" s="23"/>
+      <c r="N278" s="23"/>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="7">
         <v>275</v>
       </c>
@@ -11287,20 +12501,24 @@
       <c r="I279" s="9">
         <v>14.4</v>
       </c>
-      <c r="J279" s="1" t="s">
+      <c r="J279" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K279" s="23"/>
+      <c r="L279" s="23"/>
+      <c r="M279" s="23"/>
+      <c r="N279" s="23"/>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="7">
         <v>276</v>
       </c>
       <c r="B280" s="1" t="str">
-        <f>B279</f>
+        <f t="shared" ref="B280:C284" si="23">B279</f>
         <v>School Bus 1</v>
       </c>
       <c r="C280" s="1" t="str">
-        <f>C279</f>
+        <f t="shared" si="23"/>
         <v>School Bus 1</v>
       </c>
       <c r="D280" s="1" t="s">
@@ -11319,20 +12537,24 @@
       <c r="I280" s="9">
         <v>0</v>
       </c>
-      <c r="J280" s="1" t="s">
+      <c r="J280" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K280" s="23"/>
+      <c r="L280" s="23"/>
+      <c r="M280" s="23"/>
+      <c r="N280" s="23"/>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="7">
         <v>277</v>
       </c>
       <c r="B281" s="1" t="str">
-        <f>B280</f>
+        <f t="shared" si="23"/>
         <v>School Bus 1</v>
       </c>
       <c r="C281" s="1" t="str">
-        <f>C280</f>
+        <f t="shared" si="23"/>
         <v>School Bus 1</v>
       </c>
       <c r="D281" s="19" t="s">
@@ -11351,20 +12573,24 @@
       <c r="I281" s="9">
         <v>1.5</v>
       </c>
-      <c r="J281" s="1" t="s">
+      <c r="J281" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K281" s="23"/>
+      <c r="L281" s="23"/>
+      <c r="M281" s="23"/>
+      <c r="N281" s="23"/>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="7">
         <v>278</v>
       </c>
       <c r="B282" s="1" t="str">
-        <f>B281</f>
+        <f t="shared" si="23"/>
         <v>School Bus 1</v>
       </c>
       <c r="C282" s="1" t="str">
-        <f>C281</f>
+        <f t="shared" si="23"/>
         <v>School Bus 1</v>
       </c>
       <c r="D282" s="1" t="s">
@@ -11383,20 +12609,24 @@
       <c r="I282" s="9">
         <v>1.5</v>
       </c>
-      <c r="J282" s="1" t="s">
+      <c r="J282" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K282" s="23"/>
+      <c r="L282" s="23"/>
+      <c r="M282" s="23"/>
+      <c r="N282" s="23"/>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="7">
         <v>279</v>
       </c>
       <c r="B283" s="1" t="str">
-        <f>B282</f>
+        <f t="shared" si="23"/>
         <v>School Bus 1</v>
       </c>
       <c r="C283" s="1" t="str">
-        <f>C282</f>
+        <f t="shared" si="23"/>
         <v>School Bus 1</v>
       </c>
       <c r="D283" s="19" t="s">
@@ -11415,20 +12645,24 @@
       <c r="I283" s="9">
         <v>0</v>
       </c>
-      <c r="J283" s="1" t="s">
+      <c r="J283" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K283" s="23"/>
+      <c r="L283" s="23"/>
+      <c r="M283" s="23"/>
+      <c r="N283" s="23"/>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="7">
         <v>280</v>
       </c>
       <c r="B284" s="1" t="str">
-        <f>B283</f>
+        <f t="shared" si="23"/>
         <v>School Bus 1</v>
       </c>
       <c r="C284" s="1" t="str">
-        <f>C283</f>
+        <f t="shared" si="23"/>
         <v>School Bus 1</v>
       </c>
       <c r="D284" s="1" t="s">
@@ -11447,11 +12681,15 @@
       <c r="I284" s="9">
         <v>14.4</v>
       </c>
-      <c r="J284" s="1" t="s">
+      <c r="J284" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K284" s="23"/>
+      <c r="L284" s="23"/>
+      <c r="M284" s="23"/>
+      <c r="N284" s="23"/>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="7">
         <v>281</v>
       </c>
@@ -11477,20 +12715,24 @@
       <c r="I285" s="9">
         <v>11.8</v>
       </c>
-      <c r="J285" s="1" t="s">
+      <c r="J285" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K285" s="23"/>
+      <c r="L285" s="23"/>
+      <c r="M285" s="23"/>
+      <c r="N285" s="23"/>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="7">
         <v>282</v>
       </c>
       <c r="B286" s="1" t="str">
-        <f>B285</f>
+        <f t="shared" ref="B286:B294" si="24">B285</f>
         <v>School Bus 2</v>
       </c>
       <c r="C286" s="1" t="str">
-        <f>C285</f>
+        <f t="shared" ref="C286:C294" si="25">C285</f>
         <v>School Bus 2</v>
       </c>
       <c r="D286" s="1" t="s">
@@ -11509,20 +12751,24 @@
       <c r="I286" s="9">
         <v>0</v>
       </c>
-      <c r="J286" s="1" t="s">
+      <c r="J286" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K286" s="23"/>
+      <c r="L286" s="23"/>
+      <c r="M286" s="23"/>
+      <c r="N286" s="23"/>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="7">
         <v>283</v>
       </c>
       <c r="B287" s="1" t="str">
-        <f>B286</f>
+        <f t="shared" si="24"/>
         <v>School Bus 2</v>
       </c>
       <c r="C287" s="1" t="str">
-        <f>C286</f>
+        <f t="shared" si="25"/>
         <v>School Bus 2</v>
       </c>
       <c r="D287" s="19" t="s">
@@ -11541,20 +12787,24 @@
       <c r="I287" s="9">
         <v>3</v>
       </c>
-      <c r="J287" s="1" t="s">
+      <c r="J287" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="288" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K287" s="23"/>
+      <c r="L287" s="23"/>
+      <c r="M287" s="23"/>
+      <c r="N287" s="23"/>
+    </row>
+    <row r="288" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A288" s="7">
         <v>284</v>
       </c>
       <c r="B288" s="1" t="str">
-        <f>B287</f>
+        <f t="shared" si="24"/>
         <v>School Bus 2</v>
       </c>
       <c r="C288" s="1" t="str">
-        <f>C287</f>
+        <f t="shared" si="25"/>
         <v>School Bus 2</v>
       </c>
       <c r="D288" s="19" t="s">
@@ -11573,20 +12823,24 @@
       <c r="I288" s="9">
         <v>0</v>
       </c>
-      <c r="J288" s="1" t="s">
+      <c r="J288" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="289" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K288" s="23"/>
+      <c r="L288" s="23"/>
+      <c r="M288" s="23"/>
+      <c r="N288" s="23"/>
+    </row>
+    <row r="289" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="7">
         <v>285</v>
       </c>
       <c r="B289" s="1" t="str">
-        <f>B288</f>
+        <f t="shared" si="24"/>
         <v>School Bus 2</v>
       </c>
       <c r="C289" s="1" t="str">
-        <f>C288</f>
+        <f t="shared" si="25"/>
         <v>School Bus 2</v>
       </c>
       <c r="D289" s="19" t="s">
@@ -11605,20 +12859,24 @@
       <c r="I289" s="9">
         <v>1</v>
       </c>
-      <c r="J289" s="1" t="s">
+      <c r="J289" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K289" s="23"/>
+      <c r="L289" s="23"/>
+      <c r="M289" s="23"/>
+      <c r="N289" s="23"/>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="7">
         <v>286</v>
       </c>
       <c r="B290" s="1" t="str">
-        <f>B289</f>
+        <f t="shared" si="24"/>
         <v>School Bus 2</v>
       </c>
       <c r="C290" s="1" t="str">
-        <f>C289</f>
+        <f t="shared" si="25"/>
         <v>School Bus 2</v>
       </c>
       <c r="D290" s="1" t="s">
@@ -11637,20 +12895,24 @@
       <c r="I290" s="9">
         <v>1</v>
       </c>
-      <c r="J290" s="1" t="s">
+      <c r="J290" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K290" s="23"/>
+      <c r="L290" s="23"/>
+      <c r="M290" s="23"/>
+      <c r="N290" s="23"/>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="7">
         <v>287</v>
       </c>
       <c r="B291" s="1" t="str">
-        <f>B290</f>
+        <f t="shared" si="24"/>
         <v>School Bus 2</v>
       </c>
       <c r="C291" s="1" t="str">
-        <f>C290</f>
+        <f t="shared" si="25"/>
         <v>School Bus 2</v>
       </c>
       <c r="D291" s="19" t="s">
@@ -11669,20 +12931,24 @@
       <c r="I291" s="9">
         <v>0</v>
       </c>
-      <c r="J291" s="1" t="s">
+      <c r="J291" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="292" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K291" s="23"/>
+      <c r="L291" s="23"/>
+      <c r="M291" s="23"/>
+      <c r="N291" s="23"/>
+    </row>
+    <row r="292" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="7">
         <v>288</v>
       </c>
       <c r="B292" s="1" t="str">
-        <f>B291</f>
+        <f t="shared" si="24"/>
         <v>School Bus 2</v>
       </c>
       <c r="C292" s="1" t="str">
-        <f>C291</f>
+        <f t="shared" si="25"/>
         <v>School Bus 2</v>
       </c>
       <c r="D292" s="19" t="s">
@@ -11701,20 +12967,24 @@
       <c r="I292" s="9">
         <v>11.8</v>
       </c>
-      <c r="J292" s="1" t="s">
+      <c r="J292" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="293" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="K292" s="23"/>
+      <c r="L292" s="23"/>
+      <c r="M292" s="23"/>
+      <c r="N292" s="23"/>
+    </row>
+    <row r="293" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="7">
         <v>289</v>
       </c>
       <c r="B293" s="1" t="str">
-        <f>B292</f>
+        <f t="shared" si="24"/>
         <v>School Bus 2</v>
       </c>
       <c r="C293" s="1" t="str">
-        <f>C292</f>
+        <f t="shared" si="25"/>
         <v>School Bus 2</v>
       </c>
       <c r="D293" s="19" t="s">
@@ -11733,20 +13003,24 @@
       <c r="I293" s="9">
         <v>0</v>
       </c>
-      <c r="J293" s="1" t="s">
+      <c r="J293" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K293" s="23"/>
+      <c r="L293" s="23"/>
+      <c r="M293" s="23"/>
+      <c r="N293" s="23"/>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="7">
         <v>290</v>
       </c>
       <c r="B294" s="1" t="str">
-        <f>B293</f>
+        <f t="shared" si="24"/>
         <v>School Bus 2</v>
       </c>
       <c r="C294" s="1" t="str">
-        <f>C293</f>
+        <f t="shared" si="25"/>
         <v>School Bus 2</v>
       </c>
       <c r="D294" s="19" t="s">
@@ -11765,11 +13039,15 @@
       <c r="I294" s="9">
         <v>3</v>
       </c>
-      <c r="J294" s="1" t="s">
+      <c r="J294" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K294" s="23"/>
+      <c r="L294" s="23"/>
+      <c r="M294" s="23"/>
+      <c r="N294" s="23"/>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="7">
         <v>291</v>
       </c>
@@ -11795,20 +13073,24 @@
       <c r="I295" s="9">
         <v>13.2</v>
       </c>
-      <c r="J295" s="1" t="s">
+      <c r="J295" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K295" s="23"/>
+      <c r="L295" s="23"/>
+      <c r="M295" s="23"/>
+      <c r="N295" s="23"/>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="7">
         <v>292</v>
       </c>
       <c r="B296" s="1" t="str">
-        <f>B295</f>
+        <f t="shared" ref="B296:C300" si="26">B295</f>
         <v>School Bus 3</v>
       </c>
       <c r="C296" s="1" t="str">
-        <f>C295</f>
+        <f t="shared" si="26"/>
         <v>School Bus 3</v>
       </c>
       <c r="D296" s="19" t="s">
@@ -11827,20 +13109,24 @@
       <c r="I296" s="9">
         <v>0</v>
       </c>
-      <c r="J296" s="1" t="s">
+      <c r="J296" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K296" s="23"/>
+      <c r="L296" s="23"/>
+      <c r="M296" s="23"/>
+      <c r="N296" s="23"/>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="7">
         <v>293</v>
       </c>
       <c r="B297" s="1" t="str">
-        <f>B296</f>
+        <f t="shared" si="26"/>
         <v>School Bus 3</v>
       </c>
       <c r="C297" s="1" t="str">
-        <f>C296</f>
+        <f t="shared" si="26"/>
         <v>School Bus 3</v>
       </c>
       <c r="D297" s="19" t="s">
@@ -11859,20 +13145,24 @@
       <c r="I297" s="9">
         <v>1</v>
       </c>
-      <c r="J297" s="1" t="s">
+      <c r="J297" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K297" s="23"/>
+      <c r="L297" s="23"/>
+      <c r="M297" s="23"/>
+      <c r="N297" s="23"/>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="7">
         <v>294</v>
       </c>
       <c r="B298" s="1" t="str">
-        <f>B297</f>
+        <f t="shared" si="26"/>
         <v>School Bus 3</v>
       </c>
       <c r="C298" s="1" t="str">
-        <f>C297</f>
+        <f t="shared" si="26"/>
         <v>School Bus 3</v>
       </c>
       <c r="D298" s="19" t="s">
@@ -11891,20 +13181,24 @@
       <c r="I298" s="9">
         <v>1</v>
       </c>
-      <c r="J298" s="1" t="s">
+      <c r="J298" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K298" s="23"/>
+      <c r="L298" s="23"/>
+      <c r="M298" s="23"/>
+      <c r="N298" s="23"/>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="7">
         <v>295</v>
       </c>
       <c r="B299" s="1" t="str">
-        <f>B298</f>
+        <f t="shared" si="26"/>
         <v>School Bus 3</v>
       </c>
       <c r="C299" s="1" t="str">
-        <f>C298</f>
+        <f t="shared" si="26"/>
         <v>School Bus 3</v>
       </c>
       <c r="D299" s="19" t="s">
@@ -11923,20 +13217,24 @@
       <c r="I299" s="9">
         <v>0</v>
       </c>
-      <c r="J299" s="1" t="s">
+      <c r="J299" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K299" s="23"/>
+      <c r="L299" s="23"/>
+      <c r="M299" s="23"/>
+      <c r="N299" s="23"/>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="7">
         <v>296</v>
       </c>
       <c r="B300" s="1" t="str">
-        <f>B299</f>
+        <f t="shared" si="26"/>
         <v>School Bus 3</v>
       </c>
       <c r="C300" s="1" t="str">
-        <f>C299</f>
+        <f t="shared" si="26"/>
         <v>School Bus 3</v>
       </c>
       <c r="D300" s="19" t="s">
@@ -11955,11 +13253,15 @@
       <c r="I300" s="9">
         <v>13.2</v>
       </c>
-      <c r="J300" s="1" t="s">
+      <c r="J300" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K300" s="23"/>
+      <c r="L300" s="23"/>
+      <c r="M300" s="23"/>
+      <c r="N300" s="23"/>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="7">
         <v>297</v>
       </c>
@@ -11985,20 +13287,24 @@
       <c r="I301" s="9">
         <v>1</v>
       </c>
-      <c r="J301" s="1" t="s">
+      <c r="J301" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K301" s="23"/>
+      <c r="L301" s="23"/>
+      <c r="M301" s="23"/>
+      <c r="N301" s="23"/>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="7">
         <v>298</v>
       </c>
       <c r="B302" s="1" t="str">
-        <f>B301</f>
+        <f t="shared" ref="B302:C306" si="27">B301</f>
         <v>School Bus 4</v>
       </c>
       <c r="C302" s="1" t="str">
-        <f>C301</f>
+        <f t="shared" si="27"/>
         <v>School Bus 4</v>
       </c>
       <c r="D302" s="1" t="s">
@@ -12017,20 +13323,24 @@
       <c r="I302" s="9">
         <v>0</v>
       </c>
-      <c r="J302" s="1" t="s">
+      <c r="J302" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K302" s="23"/>
+      <c r="L302" s="23"/>
+      <c r="M302" s="23"/>
+      <c r="N302" s="23"/>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="7">
         <v>299</v>
       </c>
       <c r="B303" s="1" t="str">
-        <f>B302</f>
+        <f t="shared" si="27"/>
         <v>School Bus 4</v>
       </c>
       <c r="C303" s="1" t="str">
-        <f>C302</f>
+        <f t="shared" si="27"/>
         <v>School Bus 4</v>
       </c>
       <c r="D303" s="19" t="s">
@@ -12049,20 +13359,24 @@
       <c r="I303" s="9">
         <v>1</v>
       </c>
-      <c r="J303" s="1" t="s">
+      <c r="J303" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K303" s="23"/>
+      <c r="L303" s="23"/>
+      <c r="M303" s="23"/>
+      <c r="N303" s="23"/>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="7">
         <v>300</v>
       </c>
       <c r="B304" s="1" t="str">
-        <f>B303</f>
+        <f t="shared" si="27"/>
         <v>School Bus 4</v>
       </c>
       <c r="C304" s="1" t="str">
-        <f>C303</f>
+        <f t="shared" si="27"/>
         <v>School Bus 4</v>
       </c>
       <c r="D304" s="1" t="s">
@@ -12081,20 +13395,24 @@
       <c r="I304" s="9">
         <v>1</v>
       </c>
-      <c r="J304" s="1" t="s">
+      <c r="J304" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K304" s="23"/>
+      <c r="L304" s="23"/>
+      <c r="M304" s="23"/>
+      <c r="N304" s="23"/>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="7">
         <v>301</v>
       </c>
       <c r="B305" s="1" t="str">
-        <f>B304</f>
+        <f t="shared" si="27"/>
         <v>School Bus 4</v>
       </c>
       <c r="C305" s="1" t="str">
-        <f>C304</f>
+        <f t="shared" si="27"/>
         <v>School Bus 4</v>
       </c>
       <c r="D305" s="19" t="s">
@@ -12113,20 +13431,24 @@
       <c r="I305" s="9">
         <v>0</v>
       </c>
-      <c r="J305" s="1" t="s">
+      <c r="J305" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K305" s="23"/>
+      <c r="L305" s="23"/>
+      <c r="M305" s="23"/>
+      <c r="N305" s="23"/>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="7">
         <v>302</v>
       </c>
       <c r="B306" s="1" t="str">
-        <f>B305</f>
+        <f t="shared" si="27"/>
         <v>School Bus 4</v>
       </c>
       <c r="C306" s="1" t="str">
-        <f>C305</f>
+        <f t="shared" si="27"/>
         <v>School Bus 4</v>
       </c>
       <c r="D306" s="1" t="s">
@@ -12145,11 +13467,15 @@
       <c r="I306" s="9">
         <v>1</v>
       </c>
-      <c r="J306" s="1" t="s">
+      <c r="J306" s="10" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K306" s="23"/>
+      <c r="L306" s="23"/>
+      <c r="M306" s="23"/>
+      <c r="N306" s="23"/>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="7">
         <v>303</v>
       </c>
@@ -12175,20 +13501,24 @@
       <c r="I307" s="9">
         <v>2.5</v>
       </c>
-      <c r="J307" s="1" t="s">
+      <c r="J307" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K307" s="23"/>
+      <c r="L307" s="23"/>
+      <c r="M307" s="23"/>
+      <c r="N307" s="23"/>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="7">
         <v>304</v>
       </c>
       <c r="B308" s="1" t="str">
-        <f>B307</f>
+        <f t="shared" ref="B308:C312" si="28">B307</f>
         <v>School Bus 5</v>
       </c>
       <c r="C308" s="1" t="str">
-        <f>C307</f>
+        <f t="shared" si="28"/>
         <v>School Bus 5</v>
       </c>
       <c r="D308" s="1" t="s">
@@ -12207,20 +13537,24 @@
       <c r="I308" s="9">
         <v>0</v>
       </c>
-      <c r="J308" s="1" t="s">
+      <c r="J308" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K308" s="23"/>
+      <c r="L308" s="23"/>
+      <c r="M308" s="23"/>
+      <c r="N308" s="23"/>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="7">
         <v>305</v>
       </c>
       <c r="B309" s="1" t="str">
-        <f>B308</f>
+        <f t="shared" si="28"/>
         <v>School Bus 5</v>
       </c>
       <c r="C309" s="1" t="str">
-        <f>C308</f>
+        <f t="shared" si="28"/>
         <v>School Bus 5</v>
       </c>
       <c r="D309" s="19" t="s">
@@ -12239,20 +13573,24 @@
       <c r="I309" s="9">
         <v>14.5</v>
       </c>
-      <c r="J309" s="1" t="s">
+      <c r="J309" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K309" s="23"/>
+      <c r="L309" s="23"/>
+      <c r="M309" s="23"/>
+      <c r="N309" s="23"/>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="7">
         <v>306</v>
       </c>
       <c r="B310" s="1" t="str">
-        <f>B309</f>
+        <f t="shared" si="28"/>
         <v>School Bus 5</v>
       </c>
       <c r="C310" s="1" t="str">
-        <f>C309</f>
+        <f t="shared" si="28"/>
         <v>School Bus 5</v>
       </c>
       <c r="D310" s="1" t="s">
@@ -12271,20 +13609,24 @@
       <c r="I310" s="9">
         <v>14.5</v>
       </c>
-      <c r="J310" s="1" t="s">
+      <c r="J310" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K310" s="23"/>
+      <c r="L310" s="23"/>
+      <c r="M310" s="23"/>
+      <c r="N310" s="23"/>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="7">
         <v>307</v>
       </c>
       <c r="B311" s="1" t="str">
-        <f>B310</f>
+        <f t="shared" si="28"/>
         <v>School Bus 5</v>
       </c>
       <c r="C311" s="1" t="str">
-        <f>C310</f>
+        <f t="shared" si="28"/>
         <v>School Bus 5</v>
       </c>
       <c r="D311" s="19" t="s">
@@ -12303,20 +13645,24 @@
       <c r="I311" s="9">
         <v>0</v>
       </c>
-      <c r="J311" s="1" t="s">
+      <c r="J311" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K311" s="23"/>
+      <c r="L311" s="23"/>
+      <c r="M311" s="23"/>
+      <c r="N311" s="23"/>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="7">
         <v>308</v>
       </c>
       <c r="B312" s="1" t="str">
-        <f>B311</f>
+        <f t="shared" si="28"/>
         <v>School Bus 5</v>
       </c>
       <c r="C312" s="1" t="str">
-        <f>C311</f>
+        <f t="shared" si="28"/>
         <v>School Bus 5</v>
       </c>
       <c r="D312" s="1" t="s">
@@ -12335,11 +13681,15 @@
       <c r="I312" s="9">
         <v>2.5</v>
       </c>
-      <c r="J312" s="1" t="s">
+      <c r="J312" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K312" s="23"/>
+      <c r="L312" s="23"/>
+      <c r="M312" s="23"/>
+      <c r="N312" s="23"/>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="7">
         <v>309</v>
       </c>
@@ -12365,20 +13715,24 @@
       <c r="I313" s="9">
         <v>5.3</v>
       </c>
-      <c r="J313" s="1" t="s">
+      <c r="J313" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K313" s="23"/>
+      <c r="L313" s="23"/>
+      <c r="M313" s="23"/>
+      <c r="N313" s="23"/>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="7">
         <v>310</v>
       </c>
       <c r="B314" s="1" t="str">
-        <f>B313</f>
+        <f t="shared" ref="B314:C318" si="29">B313</f>
         <v>School Bus 6</v>
       </c>
       <c r="C314" s="1" t="str">
-        <f>C313</f>
+        <f t="shared" si="29"/>
         <v>School Bus 6</v>
       </c>
       <c r="D314" s="1" t="s">
@@ -12397,20 +13751,24 @@
       <c r="I314" s="9">
         <v>0</v>
       </c>
-      <c r="J314" s="1" t="s">
+      <c r="J314" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K314" s="23"/>
+      <c r="L314" s="23"/>
+      <c r="M314" s="23"/>
+      <c r="N314" s="23"/>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="7">
         <v>311</v>
       </c>
       <c r="B315" s="1" t="str">
-        <f>B314</f>
+        <f t="shared" si="29"/>
         <v>School Bus 6</v>
       </c>
       <c r="C315" s="1" t="str">
-        <f>C314</f>
+        <f t="shared" si="29"/>
         <v>School Bus 6</v>
       </c>
       <c r="D315" s="1" t="s">
@@ -12429,20 +13787,24 @@
       <c r="I315" s="9">
         <v>14.5</v>
       </c>
-      <c r="J315" s="1" t="s">
+      <c r="J315" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K315" s="23"/>
+      <c r="L315" s="23"/>
+      <c r="M315" s="23"/>
+      <c r="N315" s="23"/>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="7">
         <v>312</v>
       </c>
       <c r="B316" s="1" t="str">
-        <f>B315</f>
+        <f t="shared" si="29"/>
         <v>School Bus 6</v>
       </c>
       <c r="C316" s="1" t="str">
-        <f>C315</f>
+        <f t="shared" si="29"/>
         <v>School Bus 6</v>
       </c>
       <c r="D316" s="1" t="s">
@@ -12461,20 +13823,24 @@
       <c r="I316" s="9">
         <v>14.5</v>
       </c>
-      <c r="J316" s="1" t="s">
+      <c r="J316" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K316" s="23"/>
+      <c r="L316" s="23"/>
+      <c r="M316" s="23"/>
+      <c r="N316" s="23"/>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="7">
         <v>313</v>
       </c>
       <c r="B317" s="1" t="str">
-        <f>B316</f>
+        <f t="shared" si="29"/>
         <v>School Bus 6</v>
       </c>
       <c r="C317" s="1" t="str">
-        <f>C316</f>
+        <f t="shared" si="29"/>
         <v>School Bus 6</v>
       </c>
       <c r="D317" s="19" t="s">
@@ -12493,20 +13859,24 @@
       <c r="I317" s="9">
         <v>0</v>
       </c>
-      <c r="J317" s="1" t="s">
+      <c r="J317" s="10" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K317" s="23"/>
+      <c r="L317" s="23"/>
+      <c r="M317" s="23"/>
+      <c r="N317" s="23"/>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="8">
         <v>314</v>
       </c>
       <c r="B318" s="6" t="str">
-        <f>B317</f>
+        <f t="shared" si="29"/>
         <v>School Bus 6</v>
       </c>
       <c r="C318" s="6" t="str">
-        <f>C317</f>
+        <f t="shared" si="29"/>
         <v>School Bus 6</v>
       </c>
       <c r="D318" s="6" t="s">
@@ -12530,8 +13900,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.23622047244094491" top="0.27559055118110237" bottom="0.31496062992125984" header="0.19685039370078741" footer="0.15748031496062992"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
